--- a/static/filtros.xlsx
+++ b/static/filtros.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Cluster" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sunburst" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Vertex" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Parallel" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Cluster_var" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Cluster_var" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Parallel" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -12056,24 +12056,20 @@
       </c>
       <c r="E1" s="17" t="inlineStr">
         <is>
-          <t>1) AVAILABILITY</t>
+          <t>2020 Global Index Score (0-100)</t>
         </is>
       </c>
       <c r="F1" s="17" t="inlineStr">
         <is>
-          <t>1.1) USAGE</t>
+          <t>Goal 1: No Poverty</t>
         </is>
       </c>
       <c r="G1" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2) QUALITY   </t>
-        </is>
-      </c>
-      <c r="H1" s="16" t="inlineStr">
-        <is>
-          <t>1.3) INFRASTRUCTURE</t>
-        </is>
-      </c>
+          <t>Goal 2: No hunger</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr"/>
       <c r="I1" s="16" t="inlineStr"/>
     </row>
     <row r="2">
@@ -12092,6 +12088,12 @@
           <t>outside_cluster</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>54.22420643621086</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45.24614285714286</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12109,6 +12111,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>70.81703267973857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>95.5355</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48.87600000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12127,16 +12138,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56.1</v>
+        <v>72.26962212885154</v>
       </c>
       <c r="F4" t="n">
-        <v>64.8</v>
+        <v>97.881</v>
       </c>
       <c r="G4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41.1</v>
+        <v>54.58057142857144</v>
       </c>
     </row>
     <row r="5">
@@ -12172,6 +12180,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>52.58927717086834</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.9145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47.21528571428571</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12207,16 +12224,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>71.40000000000001</v>
+        <v>73.16805564892624</v>
       </c>
       <c r="F8" t="n">
-        <v>81.59999999999999</v>
+        <v>96.715</v>
       </c>
       <c r="G8" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>76.90000000000001</v>
+        <v>64.52014285714286</v>
       </c>
     </row>
     <row r="9">
@@ -12235,6 +12249,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>69.86036322892792</v>
+      </c>
+      <c r="F9" t="n">
+        <v>93.18350000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>58.966</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12253,16 +12276,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>79.40000000000001</v>
+        <v>74.87032364073836</v>
       </c>
       <c r="F10" t="n">
-        <v>82.59999999999999</v>
+        <v>99.0305</v>
       </c>
       <c r="G10" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>86.3</v>
+        <v>56.17928571428571</v>
       </c>
     </row>
     <row r="11">
@@ -12282,16 +12302,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>78.59999999999999</v>
+        <v>80.69854630683044</v>
       </c>
       <c r="F11" t="n">
-        <v>84.40000000000001</v>
+        <v>99.19200000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>83.8</v>
+        <v>71.62214285714286</v>
       </c>
     </row>
     <row r="12">
@@ -12311,16 +12328,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69.09999999999999</v>
+        <v>72.60889777608014</v>
       </c>
       <c r="F12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>67.59999999999999</v>
+        <v>61.75985714285714</v>
       </c>
     </row>
     <row r="13">
@@ -12357,16 +12371,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>80.5</v>
+        <v>68.83185367475663</v>
       </c>
       <c r="G14" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>93.8</v>
+        <v>66.39200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -12386,16 +12394,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.9</v>
+        <v>63.50642394957984</v>
       </c>
       <c r="F15" t="n">
-        <v>34.1</v>
+        <v>66.94550000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>64.40000000000001</v>
+        <v>55.28971428571429</v>
       </c>
     </row>
     <row r="16">
@@ -12414,6 +12419,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E16" t="n">
+        <v>68.28651775120305</v>
+      </c>
+      <c r="F16" t="n">
+        <v>92.31950000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48.94628571428571</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12431,6 +12445,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E17" t="n">
+        <v>78.75914060988032</v>
+      </c>
+      <c r="F17" t="n">
+        <v>99.9115</v>
+      </c>
+      <c r="G17" t="n">
+        <v>61.32900000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12449,16 +12472,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>76.90000000000001</v>
+        <v>79.95540431300724</v>
       </c>
       <c r="F18" t="n">
-        <v>84.40000000000001</v>
+        <v>99.54300000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>73.8</v>
+        <v>69.36928571428572</v>
       </c>
     </row>
     <row r="19">
@@ -12477,6 +12497,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E19" t="n">
+        <v>65.07832871960379</v>
+      </c>
+      <c r="F19" t="n">
+        <v>68.7025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>59.78514285714285</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12494,6 +12523,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E20" t="n">
+        <v>53.31207189542484</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.485</v>
+      </c>
+      <c r="G20" t="n">
+        <v>57.28100000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12511,6 +12549,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E21" t="n">
+        <v>69.26511056022409</v>
+      </c>
+      <c r="F21" t="n">
+        <v>89.8155</v>
+      </c>
+      <c r="G21" t="n">
+        <v>54.2216</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12528,6 +12575,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E22" t="n">
+        <v>69.26780066420507</v>
+      </c>
+      <c r="F22" t="n">
+        <v>85.82550000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>56.37885714285715</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12545,6 +12601,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E23" t="n">
+        <v>73.47885854341737</v>
+      </c>
+      <c r="F23" t="n">
+        <v>99.7285</v>
+      </c>
+      <c r="G23" t="n">
+        <v>61.88028571428572</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12563,16 +12628,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44.8</v>
+        <v>61.45378828841882</v>
       </c>
       <c r="F24" t="n">
-        <v>57.2</v>
+        <v>58.5315</v>
       </c>
       <c r="G24" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>49.5</v>
+        <v>31.76428571428571</v>
       </c>
     </row>
     <row r="25">
@@ -12592,16 +12654,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>70.3</v>
+        <v>72.67283197945844</v>
       </c>
       <c r="F25" t="n">
-        <v>72.3</v>
+        <v>86.352</v>
       </c>
       <c r="G25" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>73.7</v>
+        <v>66.60385714285714</v>
       </c>
     </row>
     <row r="26">
@@ -12620,6 +12679,12 @@
           <t>outside_cluster</t>
         </is>
       </c>
+      <c r="E26" t="n">
+        <v>68.15180410830999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49.15771428571428</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12638,16 +12703,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>78.3</v>
+        <v>74.76597577030813</v>
       </c>
       <c r="F27" t="n">
-        <v>79</v>
+        <v>97.17400000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>81.5</v>
+        <v>63.57514285714285</v>
       </c>
     </row>
     <row r="28">
@@ -12667,16 +12729,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23.4</v>
+        <v>55.21757036124796</v>
       </c>
       <c r="F28" t="n">
-        <v>37.2</v>
+        <v>27.149</v>
       </c>
       <c r="G28" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
+        <v>53.01971428571429</v>
       </c>
     </row>
     <row r="29">
@@ -12696,16 +12755,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>53.4553860942078</v>
       </c>
       <c r="F29" t="n">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5.9</v>
+        <v>50.947</v>
       </c>
     </row>
     <row r="30">
@@ -12724,6 +12780,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E30" t="n">
+        <v>67.17833363499246</v>
+      </c>
+      <c r="F30" t="n">
+        <v>54.6845</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40.18519999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12742,16 +12807,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>57.7</v>
+        <v>64.38670718954249</v>
       </c>
       <c r="F31" t="n">
-        <v>50.1</v>
+        <v>87.9345</v>
       </c>
       <c r="G31" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="H31" t="n">
-        <v>63.1</v>
+        <v>58.10014285714286</v>
       </c>
     </row>
     <row r="32">
@@ -12771,16 +12833,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>56.53505863678805</v>
       </c>
       <c r="F32" t="n">
-        <v>42</v>
+        <v>50.734</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
-      </c>
-      <c r="H32" t="n">
-        <v>35.5</v>
+        <v>57.01657142857142</v>
       </c>
     </row>
     <row r="33">
@@ -12795,7 +12854,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
@@ -12803,16 +12862,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>78.59999999999999</v>
+        <v>78.18972804352509</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>99.2295</v>
       </c>
       <c r="G33" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>79.59999999999999</v>
+        <v>63.83728571428571</v>
       </c>
     </row>
     <row r="34">
@@ -12831,6 +12887,15 @@
           <t>cluster_1</t>
         </is>
       </c>
+      <c r="E34" t="n">
+        <v>38.53661699990342</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>36.72085714285714</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12848,6 +12913,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E35" t="n">
+        <v>43.75071452558035</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23.161</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33.01714285714286</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12866,16 +12940,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73.59999999999999</v>
+        <v>77.41916311858076</v>
       </c>
       <c r="F36" t="n">
-        <v>80.8</v>
+        <v>98.95650000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>43</v>
-      </c>
-      <c r="H36" t="n">
-        <v>70.59999999999999</v>
+        <v>67.86285714285714</v>
       </c>
     </row>
     <row r="37">
@@ -12895,16 +12966,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>74.40000000000001</v>
+        <v>73.89361975388447</v>
       </c>
       <c r="F37" t="n">
-        <v>79.2</v>
+        <v>97.95950000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>63.5</v>
+        <v>76.39357142857143</v>
       </c>
     </row>
     <row r="38">
@@ -12924,16 +12992,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61.3</v>
+        <v>70.90539164332401</v>
       </c>
       <c r="F38" t="n">
-        <v>66.59999999999999</v>
+        <v>86.64250000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>54.4</v>
+        <v>59.43885714285714</v>
       </c>
     </row>
     <row r="39">
@@ -12952,6 +13017,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E39" t="n">
+        <v>53.07385714285714</v>
+      </c>
+      <c r="F39" t="n">
+        <v>49.67400000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>45.81733333333333</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12969,6 +13043,15 @@
           <t>cluster_1</t>
         </is>
       </c>
+      <c r="E40" t="n">
+        <v>49.71074089635855</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>47.65350000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12986,6 +13069,15 @@
           <t>cluster_1</t>
         </is>
       </c>
+      <c r="E41" t="n">
+        <v>55.24834852941176</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42.17928571428572</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13003,6 +13095,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E42" t="n">
+        <v>75.07765354808589</v>
+      </c>
+      <c r="F42" t="n">
+        <v>97.6585</v>
+      </c>
+      <c r="G42" t="n">
+        <v>55.03428571428571</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13021,16 +13122,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>47.3</v>
+        <v>57.90914243697479</v>
       </c>
       <c r="F43" t="n">
-        <v>51.5</v>
+        <v>47.793</v>
       </c>
       <c r="G43" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="H43" t="n">
-        <v>51.1</v>
+        <v>56.41685714285715</v>
       </c>
     </row>
     <row r="44">
@@ -13050,16 +13148,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>70.2</v>
+        <v>78.40059418767508</v>
       </c>
       <c r="F44" t="n">
-        <v>73.59999999999999</v>
+        <v>98.46600000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>60.2</v>
+        <v>68.83928571428572</v>
       </c>
     </row>
     <row r="45">
@@ -13079,16 +13174,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>38</v>
+        <v>72.58152218568587</v>
       </c>
       <c r="G45" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="H45" t="n">
-        <v>20.5</v>
+        <v>58.41514285714286</v>
       </c>
     </row>
     <row r="46">
@@ -13107,6 +13196,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E46" t="n">
+        <v>75.21420805860805</v>
+      </c>
+      <c r="F46" t="n">
+        <v>99.881</v>
+      </c>
+      <c r="G46" t="n">
+        <v>53.88128571428571</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13124,6 +13222,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E47" t="n">
+        <v>80.57667645119587</v>
+      </c>
+      <c r="F47" t="n">
+        <v>99.41499999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>63.98114285714286</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13142,16 +13249,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>83.5</v>
+        <v>84.558775788264</v>
       </c>
       <c r="F48" t="n">
-        <v>93.2</v>
+        <v>99.5795</v>
       </c>
       <c r="G48" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>79.40000000000001</v>
+        <v>71.40914285714287</v>
       </c>
     </row>
     <row r="49">
@@ -13170,6 +13274,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E49" t="n">
+        <v>54.56479737802098</v>
+      </c>
+      <c r="F49" t="n">
+        <v>57.0085</v>
+      </c>
+      <c r="G49" t="n">
+        <v>37.91485714285714</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13204,6 +13317,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E51" t="n">
+        <v>70.1650781512605</v>
+      </c>
+      <c r="F51" t="n">
+        <v>95.36450000000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>54.37757142857144</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13238,6 +13360,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E53" t="n">
+        <v>74.26065121381886</v>
+      </c>
+      <c r="F53" t="n">
+        <v>88.355</v>
+      </c>
+      <c r="G53" t="n">
+        <v>52.58257142857143</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13256,16 +13387,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64</v>
+        <v>68.78855233426702</v>
       </c>
       <c r="F54" t="n">
-        <v>51.4</v>
+        <v>90.45050000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="H54" t="n">
-        <v>75.2</v>
+        <v>59.29985714285715</v>
       </c>
     </row>
     <row r="55">
@@ -13285,16 +13413,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.9</v>
+        <v>69.62419649859942</v>
       </c>
       <c r="F55" t="n">
-        <v>54.1</v>
+        <v>92.0605</v>
       </c>
       <c r="G55" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H55" t="n">
-        <v>63.3</v>
+        <v>52.95014285714285</v>
       </c>
     </row>
     <row r="56">
@@ -13348,16 +13473,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>82.90000000000001</v>
+        <v>80.06100023342673</v>
       </c>
       <c r="F58" t="n">
-        <v>86.40000000000001</v>
+        <v>99.70400000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="H58" t="n">
-        <v>95.3</v>
+        <v>61.50842857142857</v>
       </c>
     </row>
     <row r="59">
@@ -13376,6 +13498,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E59" t="n">
+        <v>53.40107348916577</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22.9545</v>
+      </c>
+      <c r="G59" t="n">
+        <v>42.04957142857143</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13394,16 +13525,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.7</v>
+        <v>55.23246592614059</v>
       </c>
       <c r="F60" t="n">
-        <v>23</v>
+        <v>32.548</v>
       </c>
       <c r="G60" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>11.9</v>
+        <v>53.21785714285714</v>
       </c>
     </row>
     <row r="61">
@@ -13422,6 +13550,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E61" t="n">
+        <v>69.94692156862745</v>
+      </c>
+      <c r="F61" t="n">
+        <v>93.36850000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>51.29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13439,6 +13576,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E62" t="n">
+        <v>83.77275949508008</v>
+      </c>
+      <c r="F62" t="n">
+        <v>99.83799999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>61.11300000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13460,16 +13606,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>78.90000000000001</v>
+        <v>81.12854124111183</v>
       </c>
       <c r="F63" t="n">
-        <v>86.7</v>
+        <v>99.54300000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="H63" t="n">
-        <v>78.2</v>
+        <v>70.33785714285715</v>
       </c>
     </row>
     <row r="64">
@@ -13489,16 +13632,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.5</v>
+        <v>63.40206131413805</v>
       </c>
       <c r="F64" t="n">
-        <v>59.5</v>
+        <v>86.3015</v>
       </c>
       <c r="G64" t="n">
-        <v>26</v>
-      </c>
-      <c r="H64" t="n">
-        <v>42.6</v>
+        <v>53.90528571428571</v>
       </c>
     </row>
     <row r="65">
@@ -13517,6 +13657,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E65" t="n">
+        <v>57.8582505602241</v>
+      </c>
+      <c r="F65" t="n">
+        <v>67.285</v>
+      </c>
+      <c r="G65" t="n">
+        <v>45.74342857142857</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13534,6 +13683,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E66" t="n">
+        <v>71.88018627450981</v>
+      </c>
+      <c r="F66" t="n">
+        <v>85.77600000000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>51.18385714285714</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13547,7 +13705,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="13" t="inlineStr">
         <is>
@@ -13555,16 +13713,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>78.5</v>
+        <v>80.77438596566833</v>
       </c>
       <c r="F67" t="n">
-        <v>89</v>
+        <v>99.636</v>
       </c>
       <c r="G67" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="H67" t="n">
-        <v>82.3</v>
+        <v>70.04771428571428</v>
       </c>
     </row>
     <row r="68">
@@ -13584,16 +13739,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>49.5</v>
+        <v>65.37443683473391</v>
       </c>
       <c r="F68" t="n">
-        <v>54.5</v>
+        <v>70.271</v>
       </c>
       <c r="G68" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H68" t="n">
-        <v>30.5</v>
+        <v>63.62642857142857</v>
       </c>
     </row>
     <row r="69">
@@ -13613,16 +13765,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>74.8</v>
+        <v>74.32960392156863</v>
       </c>
       <c r="F69" t="n">
-        <v>80.7</v>
+        <v>96.6795</v>
       </c>
       <c r="G69" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>78.09999999999999</v>
+        <v>62.27800000000001</v>
       </c>
     </row>
     <row r="70">
@@ -13659,16 +13808,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>59.9</v>
+        <v>61.54244845938374</v>
       </c>
       <c r="F71" t="n">
-        <v>50.2</v>
+        <v>75.50150000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="H71" t="n">
-        <v>61.2</v>
+        <v>44.97628571428572</v>
       </c>
     </row>
     <row r="72">
@@ -13687,6 +13833,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E72" t="n">
+        <v>52.4691779178338</v>
+      </c>
+      <c r="F72" t="n">
+        <v>34.7175</v>
+      </c>
+      <c r="G72" t="n">
+        <v>51.64742857142857</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13721,6 +13876,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E74" t="n">
+        <v>59.73539428104576</v>
+      </c>
+      <c r="F74" t="n">
+        <v>93.938</v>
+      </c>
+      <c r="G74" t="n">
+        <v>58.89728571428571</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13738,6 +13902,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E75" t="n">
+        <v>51.69477868509723</v>
+      </c>
+      <c r="F75" t="n">
+        <v>36.962</v>
+      </c>
+      <c r="G75" t="n">
+        <v>41.152</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13756,16 +13929,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.3</v>
+        <v>64.44480574229691</v>
       </c>
       <c r="F76" t="n">
-        <v>45.7</v>
+        <v>58.7805</v>
       </c>
       <c r="G76" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="H76" t="n">
-        <v>35.5</v>
+        <v>48.14514285714285</v>
       </c>
     </row>
     <row r="77">
@@ -13785,16 +13955,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>78.5</v>
+        <v>77.33621140056025</v>
       </c>
       <c r="F77" t="n">
-        <v>79.8</v>
+        <v>98.968</v>
       </c>
       <c r="G77" t="n">
-        <v>56</v>
-      </c>
-      <c r="H77" t="n">
-        <v>78.09999999999999</v>
+        <v>68.04457142857143</v>
       </c>
     </row>
     <row r="78">
@@ -13813,6 +13980,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E78" t="n">
+        <v>77.51680039143861</v>
+      </c>
+      <c r="F78" t="n">
+        <v>99.7055</v>
+      </c>
+      <c r="G78" t="n">
+        <v>62.05950000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13831,16 +14007,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>57</v>
+        <v>61.91698893198304</v>
       </c>
       <c r="F79" t="n">
-        <v>33.8</v>
+        <v>74.523</v>
       </c>
       <c r="G79" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>70.3</v>
+        <v>44.25485714285715</v>
       </c>
     </row>
     <row r="80">
@@ -13860,16 +14033,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>65.5</v>
+        <v>65.30426778711485</v>
       </c>
       <c r="F80" t="n">
-        <v>64.59999999999999</v>
+        <v>75.94250000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="H80" t="n">
-        <v>65.8</v>
+        <v>56.399</v>
       </c>
     </row>
     <row r="81">
@@ -13889,16 +14059,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>67.2</v>
+        <v>71.81309883286647</v>
       </c>
       <c r="F81" t="n">
-        <v>66.3</v>
+        <v>95.78749999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="H81" t="n">
-        <v>69.7</v>
+        <v>58.40357142857142</v>
       </c>
     </row>
     <row r="82">
@@ -13917,6 +14084,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E82" t="n">
+        <v>63.13649823852617</v>
+      </c>
+      <c r="F82" t="n">
+        <v>85.17699999999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>43.85971428571429</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13935,16 +14111,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>71.59999999999999</v>
+        <v>79.3810310170222</v>
       </c>
       <c r="F83" t="n">
-        <v>81.40000000000001</v>
+        <v>99.68600000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="H83" t="n">
-        <v>64.7</v>
+        <v>75.76571428571428</v>
       </c>
     </row>
     <row r="84">
@@ -13963,6 +14136,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E84" t="n">
+        <v>74.59641059757234</v>
+      </c>
+      <c r="F84" t="n">
+        <v>99.2325</v>
+      </c>
+      <c r="G84" t="n">
+        <v>57.77628571428572</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13976,7 +14158,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D85" s="13" t="inlineStr">
         <is>
@@ -13984,16 +14166,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.59999999999999</v>
+        <v>77.01180028011204</v>
       </c>
       <c r="F85" t="n">
-        <v>79.5</v>
+        <v>97.30799999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>82.7</v>
+        <v>66.93485714285714</v>
       </c>
     </row>
     <row r="86">
@@ -14013,16 +14192,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.3</v>
+        <v>68.66371866695397</v>
       </c>
       <c r="F86" t="n">
-        <v>61.6</v>
+        <v>86.045</v>
       </c>
       <c r="G86" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="H86" t="n">
-        <v>69.59999999999999</v>
+        <v>49.7472857142857</v>
       </c>
     </row>
     <row r="87">
@@ -14045,16 +14221,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>77.3</v>
+        <v>79.16612522803995</v>
       </c>
       <c r="F87" t="n">
-        <v>85.09999999999999</v>
+        <v>98.9915</v>
       </c>
       <c r="G87" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="H87" t="n">
-        <v>77.5</v>
+        <v>74.11757142857142</v>
       </c>
     </row>
     <row r="88">
@@ -14073,6 +14246,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E88" t="n">
+        <v>68.05371069094303</v>
+      </c>
+      <c r="F88" t="n">
+        <v>90.795</v>
+      </c>
+      <c r="G88" t="n">
+        <v>52.787</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14091,16 +14273,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>72.3</v>
+        <v>71.05855057720058</v>
       </c>
       <c r="F89" t="n">
-        <v>80.40000000000001</v>
+        <v>99.886</v>
       </c>
       <c r="G89" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>70.8</v>
+        <v>53.34728571428571</v>
       </c>
     </row>
     <row r="90">
@@ -14120,16 +14299,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>56.2</v>
+        <v>60.17106661998133</v>
       </c>
       <c r="F90" t="n">
-        <v>50.1</v>
+        <v>48.463</v>
       </c>
       <c r="G90" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>58.5</v>
+        <v>48.81942857142858</v>
       </c>
     </row>
     <row r="91">
@@ -14183,16 +14359,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>86.90000000000001</v>
+        <v>78.34155288730878</v>
       </c>
       <c r="F93" t="n">
-        <v>92.40000000000001</v>
+        <v>99.0245</v>
       </c>
       <c r="G93" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>82.09999999999999</v>
+        <v>80.24442857142857</v>
       </c>
     </row>
     <row r="94">
@@ -14224,16 +14397,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>78</v>
-      </c>
-      <c r="F95" t="n">
-        <v>77.5</v>
+        <v>63.14272332569391</v>
       </c>
       <c r="G95" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="H95" t="n">
-        <v>83.09999999999999</v>
+        <v>62.85157142857143</v>
       </c>
     </row>
     <row r="96">
@@ -14252,6 +14419,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E96" t="n">
+        <v>73.01092219251338</v>
+      </c>
+      <c r="F96" t="n">
+        <v>84.32849999999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>60.491</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14270,16 +14446,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.8</v>
+        <v>62.06225509803923</v>
       </c>
       <c r="F97" t="n">
-        <v>44.2</v>
+        <v>58.718</v>
       </c>
       <c r="G97" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="H97" t="n">
-        <v>27.2</v>
+        <v>63.012</v>
       </c>
     </row>
     <row r="98">
@@ -14299,16 +14472,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>74.2</v>
+        <v>77.73404654528476</v>
       </c>
       <c r="F98" t="n">
-        <v>80</v>
+        <v>98.75399999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="H98" t="n">
-        <v>64</v>
+        <v>63.93628571428572</v>
       </c>
     </row>
     <row r="99">
@@ -14328,16 +14498,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>67.2</v>
+        <v>66.6765837535014</v>
       </c>
       <c r="F99" t="n">
-        <v>66.2</v>
+        <v>99.92750000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="H99" t="n">
-        <v>61.4</v>
+        <v>49.126</v>
       </c>
     </row>
     <row r="100">
@@ -14356,6 +14523,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E100" t="n">
+        <v>53.99763614089313</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14.0085</v>
+      </c>
+      <c r="G100" t="n">
+        <v>50.50785714285715</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14374,16 +14550,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.2</v>
+        <v>47.12115385154062</v>
       </c>
       <c r="F101" t="n">
-        <v>23.4</v>
+        <v>22.989</v>
       </c>
       <c r="G101" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="H101" t="n">
-        <v>24.2</v>
+        <v>44.38914285714286</v>
       </c>
     </row>
     <row r="102">
@@ -14437,16 +14610,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>80.40000000000001</v>
+        <v>74.95026318681319</v>
       </c>
       <c r="F104" t="n">
-        <v>82.09999999999999</v>
+        <v>98.51050000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="H104" t="n">
-        <v>83.3</v>
+        <v>61.47628571428572</v>
       </c>
     </row>
     <row r="105">
@@ -14465,6 +14635,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E105" t="n">
+        <v>74.30922607771313</v>
+      </c>
+      <c r="F105" t="n">
+        <v>99.85499999999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>67.122</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14483,16 +14662,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>49.14394309056956</v>
       </c>
       <c r="F106" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>32.5</v>
+        <v>40.43142857142857</v>
       </c>
     </row>
     <row r="107">
@@ -14512,16 +14688,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.5</v>
+        <v>52.20149659840948</v>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>4.194</v>
       </c>
       <c r="G107" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="H107" t="n">
-        <v>32.8</v>
+        <v>59.39571428571428</v>
       </c>
     </row>
     <row r="108">
@@ -14541,16 +14714,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>73.2</v>
+        <v>71.75873949579832</v>
       </c>
       <c r="F108" t="n">
-        <v>74.40000000000001</v>
+        <v>99.98050000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="H108" t="n">
-        <v>75.09999999999999</v>
+        <v>54.55714285714286</v>
       </c>
     </row>
     <row r="109">
@@ -14569,6 +14739,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E109" t="n">
+        <v>67.59050688429218</v>
+      </c>
+      <c r="F109" t="n">
+        <v>91.7535</v>
+      </c>
+      <c r="G109" t="n">
+        <v>44.88842857142858</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14586,6 +14765,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E110" t="n">
+        <v>51.38535304098651</v>
+      </c>
+      <c r="F110" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="G110" t="n">
+        <v>48.40557142857143</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14603,6 +14791,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E111" t="n">
+        <v>75.96636460892049</v>
+      </c>
+      <c r="F111" t="n">
+        <v>99.755</v>
+      </c>
+      <c r="G111" t="n">
+        <v>62.21557142857143</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14637,6 +14834,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E113" t="n">
+        <v>57.72159169000934</v>
+      </c>
+      <c r="F113" t="n">
+        <v>81.38550000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>39.45828571428572</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14654,6 +14860,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E114" t="n">
+        <v>63.77344229691876</v>
+      </c>
+      <c r="F114" t="n">
+        <v>98.785</v>
+      </c>
+      <c r="G114" t="n">
+        <v>59.1788</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14672,16 +14887,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.5</v>
+        <v>70.43634631185809</v>
       </c>
       <c r="F115" t="n">
-        <v>62.1</v>
+        <v>87.26300000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="H115" t="n">
-        <v>64.40000000000001</v>
+        <v>56.82785714285716</v>
       </c>
     </row>
     <row r="116">
@@ -14717,6 +14929,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E117" t="n">
+        <v>74.44386724386725</v>
+      </c>
+      <c r="F117" t="n">
+        <v>99.6495</v>
+      </c>
+      <c r="G117" t="n">
+        <v>58.73933333333334</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14752,16 +14973,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63</v>
+        <v>63.98315122315594</v>
       </c>
       <c r="F119" t="n">
-        <v>66.8</v>
+        <v>95.65350000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>38</v>
-      </c>
-      <c r="H119" t="n">
-        <v>61.7</v>
+        <v>42.41614285714286</v>
       </c>
     </row>
     <row r="120">
@@ -14780,6 +14998,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E120" t="n">
+        <v>70.18786265172736</v>
+      </c>
+      <c r="F120" t="n">
+        <v>99.91550000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>50.31842857142858</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14798,16 +15025,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>67.5</v>
+        <v>71.29460093370682</v>
       </c>
       <c r="F121" t="n">
-        <v>64</v>
+        <v>95.48500000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="H121" t="n">
-        <v>71.8</v>
+        <v>56.76157142857142</v>
       </c>
     </row>
     <row r="122">
@@ -14827,16 +15051,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.4</v>
+        <v>54.12580247432305</v>
       </c>
       <c r="F122" t="n">
-        <v>37.2</v>
+        <v>11.77</v>
       </c>
       <c r="G122" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="H122" t="n">
-        <v>26.1</v>
+        <v>45.26485714285715</v>
       </c>
     </row>
     <row r="123">
@@ -14856,16 +15077,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>52.4</v>
+        <v>64.57962156862745</v>
       </c>
       <c r="F123" t="n">
-        <v>46.8</v>
+        <v>85.11799999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="H123" t="n">
-        <v>71.09999999999999</v>
+        <v>56.58928571428572</v>
       </c>
     </row>
     <row r="124">
@@ -14885,16 +15103,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.7</v>
+        <v>61.63399719887956</v>
       </c>
       <c r="F124" t="n">
-        <v>57.2</v>
+        <v>56.192</v>
       </c>
       <c r="G124" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H124" t="n">
-        <v>21.2</v>
+        <v>38.3087142857143</v>
       </c>
     </row>
     <row r="125">
@@ -14930,6 +15145,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E126" t="n">
+        <v>65.93334613445377</v>
+      </c>
+      <c r="F126" t="n">
+        <v>63.242</v>
+      </c>
+      <c r="G126" t="n">
+        <v>58.00228571428572</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14948,16 +15172,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>81.7</v>
+        <v>80.37147205343678</v>
       </c>
       <c r="F127" t="n">
-        <v>89.8</v>
+        <v>99.613</v>
       </c>
       <c r="G127" t="n">
-        <v>56</v>
-      </c>
-      <c r="H127" t="n">
-        <v>81.09999999999999</v>
+        <v>66.66685714285715</v>
       </c>
     </row>
     <row r="128">
@@ -14977,16 +15198,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>81.7</v>
+        <v>79.20293613044012</v>
       </c>
       <c r="F128" t="n">
-        <v>87.59999999999999</v>
+        <v>99.9735</v>
       </c>
       <c r="G128" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>85.5</v>
+        <v>66.61142857142856</v>
       </c>
     </row>
     <row r="129">
@@ -15006,16 +15224,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.6</v>
+        <v>68.6557030812325</v>
       </c>
       <c r="F129" t="n">
-        <v>54.9</v>
+        <v>84.9195</v>
       </c>
       <c r="G129" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="H129" t="n">
-        <v>40.2</v>
+        <v>48.09742857142857</v>
       </c>
     </row>
     <row r="130">
@@ -15034,6 +15249,15 @@
           <t>cluster_1</t>
         </is>
       </c>
+      <c r="E130" t="n">
+        <v>50.14931293827876</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7.066</v>
+      </c>
+      <c r="G130" t="n">
+        <v>44.10142857142858</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15052,16 +15276,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.2</v>
+        <v>49.27973809523809</v>
       </c>
       <c r="F131" t="n">
-        <v>38.8</v>
+        <v>17.2385</v>
       </c>
       <c r="G131" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="H131" t="n">
-        <v>58.8</v>
+        <v>49.0367142857143</v>
       </c>
     </row>
     <row r="132">
@@ -15097,6 +15318,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E133" t="n">
+        <v>80.75791943905769</v>
+      </c>
+      <c r="F133" t="n">
+        <v>99.48</v>
+      </c>
+      <c r="G133" t="n">
+        <v>59.21571428571429</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15115,16 +15345,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>74.40000000000001</v>
+        <v>69.66843565062389</v>
       </c>
       <c r="G134" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="H134" t="n">
-        <v>76.2</v>
+        <v>58.32142857142857</v>
       </c>
     </row>
     <row r="135">
@@ -15144,16 +15368,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.3</v>
+        <v>56.16954796918768</v>
       </c>
       <c r="F135" t="n">
-        <v>12.4</v>
+        <v>79.3105</v>
       </c>
       <c r="G135" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H135" t="n">
-        <v>47.7</v>
+        <v>36.34557142857143</v>
       </c>
     </row>
     <row r="136">
@@ -15189,6 +15410,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E137" t="n">
+        <v>69.19003622782446</v>
+      </c>
+      <c r="F137" t="n">
+        <v>93.8095</v>
+      </c>
+      <c r="G137" t="n">
+        <v>52.295</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15207,16 +15437,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39</v>
+        <v>51.66137360482655</v>
       </c>
       <c r="F138" t="n">
-        <v>35</v>
+        <v>31.2415</v>
       </c>
       <c r="G138" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="H138" t="n">
-        <v>39.2</v>
+        <v>29.57360000000001</v>
       </c>
     </row>
     <row r="139">
@@ -15236,16 +15463,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>59.5</v>
+        <v>67.70740855402767</v>
       </c>
       <c r="F139" t="n">
-        <v>57.9</v>
+        <v>94.902</v>
       </c>
       <c r="G139" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="H139" t="n">
-        <v>48.3</v>
+        <v>70.83942857142857</v>
       </c>
     </row>
     <row r="140">
@@ -15265,16 +15489,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>61.4</v>
+        <v>71.75456479925305</v>
       </c>
       <c r="F140" t="n">
-        <v>53.3</v>
+        <v>90.1335</v>
       </c>
       <c r="G140" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H140" t="n">
-        <v>61.9</v>
+        <v>63.37585714285716</v>
       </c>
     </row>
     <row r="141">
@@ -15294,16 +15515,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.2</v>
+        <v>65.49550504201682</v>
       </c>
       <c r="F141" t="n">
-        <v>64.2</v>
+        <v>76.38800000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H141" t="n">
-        <v>67.3</v>
+        <v>57.58471428571428</v>
       </c>
     </row>
     <row r="142">
@@ -15323,16 +15541,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>75.59999999999999</v>
+        <v>78.09870441313781</v>
       </c>
       <c r="F142" t="n">
-        <v>80.5</v>
+        <v>99.9085</v>
       </c>
       <c r="G142" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="H142" t="n">
-        <v>78.7</v>
+        <v>65.34400000000001</v>
       </c>
     </row>
     <row r="143">
@@ -15352,16 +15567,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>77.3</v>
+        <v>77.64856582633055</v>
       </c>
       <c r="F143" t="n">
-        <v>81.8</v>
+        <v>98.76400000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="H143" t="n">
-        <v>78.2</v>
+        <v>58.94014285714287</v>
       </c>
     </row>
     <row r="144">
@@ -15381,16 +15593,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>77.59999999999999</v>
+        <v>64.65117279240367</v>
       </c>
       <c r="G144" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="H144" t="n">
-        <v>81.7</v>
+        <v>62.49616666666667</v>
       </c>
     </row>
     <row r="145">
@@ -15410,16 +15616,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>79.59999999999999</v>
+        <v>74.78147528011202</v>
       </c>
       <c r="F145" t="n">
-        <v>77.7</v>
+        <v>99.0855</v>
       </c>
       <c r="G145" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="H145" t="n">
-        <v>81.7</v>
+        <v>64.95085714285715</v>
       </c>
     </row>
     <row r="146">
@@ -15434,7 +15637,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="13" t="inlineStr">
         <is>
@@ -15442,16 +15645,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>72</v>
+        <v>71.92445354449471</v>
       </c>
       <c r="F146" t="n">
-        <v>79.3</v>
+        <v>99.961</v>
       </c>
       <c r="G146" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="H146" t="n">
-        <v>68.09999999999999</v>
+        <v>50.0662</v>
       </c>
     </row>
     <row r="147">
@@ -15471,16 +15671,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.9</v>
+        <v>56.55806139766251</v>
       </c>
       <c r="F147" t="n">
-        <v>33</v>
+        <v>18.409</v>
       </c>
       <c r="G147" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H147" t="n">
-        <v>63</v>
+        <v>51.72828571428571</v>
       </c>
     </row>
     <row r="148">
@@ -15584,6 +15781,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E153" t="n">
+        <v>62.57498188967894</v>
+      </c>
+      <c r="F153" t="n">
+        <v>38.40150000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>58.99728571428572</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15602,16 +15808,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>74.59999999999999</v>
+        <v>65.84678604924488</v>
       </c>
       <c r="G154" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H154" t="n">
-        <v>62.4</v>
+        <v>51.90457142857143</v>
       </c>
     </row>
     <row r="155">
@@ -15631,16 +15831,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>48.5</v>
+        <v>58.26712152194211</v>
       </c>
       <c r="F155" t="n">
-        <v>51.3</v>
+        <v>31.281</v>
       </c>
       <c r="G155" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="H155" t="n">
-        <v>46.5</v>
+        <v>56.51542857142858</v>
       </c>
     </row>
     <row r="156">
@@ -15659,6 +15856,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E156" t="n">
+        <v>75.23480505899329</v>
+      </c>
+      <c r="F156" t="n">
+        <v>99.5095</v>
+      </c>
+      <c r="G156" t="n">
+        <v>62.33842857142857</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15693,6 +15899,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E158" t="n">
+        <v>51.90816365546218</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23.8775</v>
+      </c>
+      <c r="G158" t="n">
+        <v>45.72300000000001</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15711,16 +15926,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>86.8</v>
+        <v>67.00013599439774</v>
       </c>
       <c r="F159" t="n">
-        <v>85.90000000000001</v>
+        <v>98.358</v>
       </c>
       <c r="G159" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="H159" t="n">
-        <v>83.7</v>
+        <v>72.4832</v>
       </c>
     </row>
     <row r="160">
@@ -15740,16 +15952,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>75.90000000000001</v>
+        <v>77.510564826546</v>
       </c>
       <c r="F160" t="n">
-        <v>82.7</v>
+        <v>98.23150000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="H160" t="n">
-        <v>76.59999999999999</v>
+        <v>67.7427142857143</v>
       </c>
     </row>
     <row r="161">
@@ -15768,6 +15977,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E161" t="n">
+        <v>79.80024885800474</v>
+      </c>
+      <c r="F161" t="n">
+        <v>99.6695</v>
+      </c>
+      <c r="G161" t="n">
+        <v>66.37028571428573</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15802,6 +16020,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E163" t="n">
+        <v>46.20727043988843</v>
+      </c>
+      <c r="F163" t="n">
+        <v>15.234</v>
+      </c>
+      <c r="G163" t="n">
+        <v>30.597</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15820,16 +16047,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>70.09999999999999</v>
+        <v>63.40942969187674</v>
       </c>
       <c r="F164" t="n">
-        <v>68.59999999999999</v>
+        <v>50.0155</v>
       </c>
       <c r="G164" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="H164" t="n">
-        <v>80.7</v>
+        <v>60.12314285714285</v>
       </c>
     </row>
     <row r="165">
@@ -15849,16 +16073,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>79.3</v>
+        <v>78.11066031386915</v>
       </c>
       <c r="F165" t="n">
-        <v>82.5</v>
+        <v>98.078</v>
       </c>
       <c r="G165" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="H165" t="n">
-        <v>82.2</v>
+        <v>57.30414285714286</v>
       </c>
     </row>
     <row r="166">
@@ -15878,16 +16099,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>62</v>
+        <v>66.87636311858077</v>
       </c>
       <c r="F166" t="n">
-        <v>47.2</v>
+        <v>92.086</v>
       </c>
       <c r="G166" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="H166" t="n">
-        <v>65.2</v>
+        <v>53.46585714285715</v>
       </c>
     </row>
     <row r="167">
@@ -15907,16 +16125,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.9</v>
+        <v>49.56100301120449</v>
       </c>
       <c r="F167" t="n">
-        <v>37.9</v>
+        <v>33.037</v>
       </c>
       <c r="G167" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>15.5</v>
+        <v>20.7644</v>
       </c>
     </row>
     <row r="168">
@@ -15935,6 +16150,15 @@
           <t>cluster_1</t>
         </is>
       </c>
+      <c r="E168" t="n">
+        <v>43.65692022119192</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25.8975</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15952,6 +16176,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E169" t="n">
+        <v>68.35894932306257</v>
+      </c>
+      <c r="F169" t="n">
+        <v>56.511</v>
+      </c>
+      <c r="G169" t="n">
+        <v>61.88942857142857</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15970,16 +16203,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>82.59999999999999</v>
+        <v>84.72406266968326</v>
       </c>
       <c r="F170" t="n">
-        <v>90.90000000000001</v>
+        <v>99.033</v>
       </c>
       <c r="G170" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="H170" t="n">
-        <v>82.7</v>
+        <v>67.675</v>
       </c>
     </row>
     <row r="171">
@@ -15998,6 +16228,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E171" t="n">
+        <v>79.35089680241329</v>
+      </c>
+      <c r="F171" t="n">
+        <v>99.881</v>
+      </c>
+      <c r="G171" t="n">
+        <v>67.54700000000001</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16015,6 +16254,12 @@
           <t>outside_cluster</t>
         </is>
       </c>
+      <c r="E172" t="n">
+        <v>59.33453795518208</v>
+      </c>
+      <c r="G172" t="n">
+        <v>35.27883333333333</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16032,18 +16277,6 @@
           <t>outside_cluster</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F173" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="H173" t="n">
-        <v>68.7</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16061,6 +16294,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E174" t="n">
+        <v>69.43167401324165</v>
+      </c>
+      <c r="F174" t="n">
+        <v>87.70750000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>52.24316666666666</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16079,16 +16321,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.4</v>
+        <v>56.64084402427638</v>
       </c>
       <c r="F175" t="n">
-        <v>30.7</v>
+        <v>23.423</v>
       </c>
       <c r="G175" t="n">
-        <v>29</v>
-      </c>
-      <c r="H175" t="n">
-        <v>36</v>
+        <v>50.46442857142857</v>
       </c>
     </row>
     <row r="176">
@@ -16108,16 +16347,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>75.90000000000001</v>
+        <v>74.53629047619047</v>
       </c>
       <c r="F176" t="n">
-        <v>75.2</v>
+        <v>99.9905</v>
       </c>
       <c r="G176" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="H176" t="n">
-        <v>76.7</v>
+        <v>62.89557142857144</v>
       </c>
     </row>
     <row r="177">
@@ -16136,6 +16372,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E177" t="n">
+        <v>52.6961757002801</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21.777</v>
+      </c>
+      <c r="G177" t="n">
+        <v>54.05042857142858</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16171,16 +16416,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>73</v>
+        <v>65.76397005674066</v>
       </c>
       <c r="F179" t="n">
-        <v>80.8</v>
+        <v>98.4855</v>
       </c>
       <c r="G179" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="H179" t="n">
-        <v>72.5</v>
+        <v>47.25742857142858</v>
       </c>
     </row>
     <row r="180">
@@ -16199,6 +16441,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E180" t="n">
+        <v>71.37200588235294</v>
+      </c>
+      <c r="F180" t="n">
+        <v>97.80250000000001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>53.61785714285715</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16217,16 +16468,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>70.40000000000001</v>
+        <v>70.30322351863822</v>
       </c>
       <c r="F181" t="n">
-        <v>69.40000000000001</v>
+        <v>99.6795</v>
       </c>
       <c r="G181" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H181" t="n">
-        <v>71.3</v>
+        <v>59.74228571428572</v>
       </c>
     </row>
     <row r="182">
@@ -16245,6 +16493,15 @@
           <t>cluster_2</t>
         </is>
       </c>
+      <c r="E182" t="n">
+        <v>63.02554429622666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31.708</v>
+      </c>
+      <c r="G182" t="n">
+        <v>53.55485714285714</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16280,16 +16537,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37</v>
+        <v>53.48697960494543</v>
       </c>
       <c r="F184" t="n">
-        <v>34.6</v>
+        <v>24.5315</v>
       </c>
       <c r="G184" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="H184" t="n">
-        <v>51.4</v>
+        <v>50.49271428571429</v>
       </c>
     </row>
     <row r="185">
@@ -16308,6 +16562,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E185" t="n">
+        <v>74.24486083099907</v>
+      </c>
+      <c r="F185" t="n">
+        <v>99.7645</v>
+      </c>
+      <c r="G185" t="n">
+        <v>57.53171428571428</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16326,16 +16589,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>89.59999999999999</v>
+        <v>70.29539873410901</v>
       </c>
       <c r="G186" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="H186" t="n">
-        <v>83</v>
+        <v>63.39757142857143</v>
       </c>
     </row>
     <row r="187">
@@ -16350,7 +16607,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" s="13" t="inlineStr">
         <is>
@@ -16358,16 +16615,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>78.5</v>
+        <v>79.78909703009408</v>
       </c>
       <c r="F187" t="n">
-        <v>90.7</v>
+        <v>99.6925</v>
       </c>
       <c r="G187" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="H187" t="n">
-        <v>82.5</v>
+        <v>67.45442857142858</v>
       </c>
     </row>
     <row r="188">
@@ -16382,7 +16636,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" s="13" t="inlineStr">
         <is>
@@ -16390,16 +16644,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>79.09999999999999</v>
+        <v>76.42850076492134</v>
       </c>
       <c r="F188" t="n">
-        <v>86</v>
+        <v>98.929</v>
       </c>
       <c r="G188" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H188" t="n">
-        <v>83.8</v>
+        <v>66.25871428571429</v>
       </c>
     </row>
     <row r="189">
@@ -16418,6 +16669,15 @@
           <t>cluster_4</t>
         </is>
       </c>
+      <c r="E189" t="n">
+        <v>74.27768865546219</v>
+      </c>
+      <c r="F189" t="n">
+        <v>99.886</v>
+      </c>
+      <c r="G189" t="n">
+        <v>61.34842857142858</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16436,16 +16696,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>57.7</v>
+        <v>71.01814684237331</v>
       </c>
       <c r="F190" t="n">
-        <v>51.3</v>
+        <v>67.49850000000001</v>
       </c>
       <c r="G190" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H190" t="n">
-        <v>54.3</v>
+        <v>59.86042857142856</v>
       </c>
     </row>
     <row r="191">
@@ -16464,6 +16721,15 @@
           <t>cluster_3</t>
         </is>
       </c>
+      <c r="E191" t="n">
+        <v>60.88544523809524</v>
+      </c>
+      <c r="F191" t="n">
+        <v>60.1185</v>
+      </c>
+      <c r="G191" t="n">
+        <v>47.33328571428572</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16499,16 +16765,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>52.5</v>
+        <v>61.68403325073619</v>
       </c>
       <c r="F193" t="n">
-        <v>55.1</v>
+        <v>24.807</v>
       </c>
       <c r="G193" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H193" t="n">
-        <v>49.2</v>
+        <v>46.13085714285715</v>
       </c>
     </row>
     <row r="194">
@@ -16528,16 +16791,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>68.09999999999999</v>
+        <v>73.8019007936508</v>
       </c>
       <c r="F194" t="n">
-        <v>66.7</v>
+        <v>96.129</v>
       </c>
       <c r="G194" t="n">
-        <v>48</v>
-      </c>
-      <c r="H194" t="n">
-        <v>57.9</v>
+        <v>67.64128571428571</v>
       </c>
     </row>
     <row r="195">
@@ -16556,6 +16816,12 @@
           <t>outside_cluster</t>
         </is>
       </c>
+      <c r="E195" t="n">
+        <v>52.32540737628386</v>
+      </c>
+      <c r="G195" t="n">
+        <v>27.47857142857143</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16574,16 +16840,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.1</v>
+        <v>52.6716871212853</v>
       </c>
       <c r="F196" t="n">
-        <v>43.4</v>
+        <v>13.0785</v>
       </c>
       <c r="G196" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="H196" t="n">
-        <v>38.8</v>
+        <v>44.00314285714285</v>
       </c>
     </row>
     <row r="197">
@@ -16603,16 +16866,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>46.8</v>
+        <v>59.50782948398795</v>
       </c>
       <c r="G197" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="H197" t="n">
-        <v>57.8</v>
+        <v>39.91657142857144</v>
       </c>
     </row>
     <row r="198">
@@ -16631,18 +16888,6 @@
           <t>outside_cluster</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="G198" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="H198" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16729,16 +16974,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>77.97554869082792</v>
+        <v>79.1262323567496</v>
       </c>
       <c r="F203" t="n">
-        <v>84.05385943432258</v>
+        <v>98.93281610317554</v>
       </c>
       <c r="G203" t="n">
-        <v>47.61361760823069</v>
-      </c>
-      <c r="H203" t="n">
-        <v>80.2424941262491</v>
+        <v>66.56328432616601</v>
       </c>
     </row>
     <row r="204">
@@ -16758,16 +17000,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>76.25451553375167</v>
+        <v>76.77362293358054</v>
       </c>
       <c r="F204" t="n">
-        <v>81.58882236252921</v>
+        <v>97.51532905557113</v>
       </c>
       <c r="G204" t="n">
-        <v>45.77390902569138</v>
-      </c>
-      <c r="H204" t="n">
-        <v>77.9993815725751</v>
+        <v>65.89197895777858</v>
       </c>
     </row>
     <row r="205">
@@ -16782,7 +17021,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" s="13" t="inlineStr">
         <is>
@@ -16790,16 +17029,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>77.35942252025599</v>
+        <v>77.19053211150539</v>
       </c>
       <c r="F205" t="n">
-        <v>84.80528643057437</v>
+        <v>99.17110443356273</v>
       </c>
       <c r="G205" t="n">
-        <v>45.13823278058751</v>
-      </c>
-      <c r="H205" t="n">
-        <v>79.5506306021633</v>
+        <v>65.46096651780115</v>
       </c>
     </row>
     <row r="206">
@@ -16819,16 +17055,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>78.36891297960108</v>
+        <v>78.18244048436961</v>
       </c>
       <c r="F206" t="n">
-        <v>85.84225153392683</v>
+        <v>99.02232123253991</v>
       </c>
       <c r="G206" t="n">
-        <v>45.99304552897135</v>
-      </c>
-      <c r="H206" t="n">
-        <v>81.70744923377524</v>
+        <v>68.36069496145876</v>
       </c>
     </row>
     <row r="207">
@@ -16848,16 +17081,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>68.85351363915356</v>
+        <v>70.13154802057666</v>
       </c>
       <c r="F207" t="n">
-        <v>65.03735065748121</v>
+        <v>88.47723761885028</v>
       </c>
       <c r="G207" t="n">
-        <v>41.80341316774295</v>
-      </c>
-      <c r="H207" t="n">
-        <v>70.1779546390422</v>
+        <v>61.62348438258535</v>
       </c>
     </row>
     <row r="208">
@@ -16877,16 +17107,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>78.43399211335024</v>
+        <v>78.09839052593308</v>
       </c>
       <c r="F208" t="n">
-        <v>85.90413111098717</v>
+        <v>99.00717120911195</v>
       </c>
       <c r="G208" t="n">
-        <v>46.01173375324485</v>
-      </c>
-      <c r="H208" t="n">
-        <v>81.9025264204534</v>
+        <v>68.14129229991171</v>
       </c>
     </row>
     <row r="209">
@@ -16906,16 +17133,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>66.92246168438824</v>
+        <v>71.54166304640883</v>
       </c>
       <c r="F209" t="n">
-        <v>68.21777609519341</v>
+        <v>85.19723909728964</v>
       </c>
       <c r="G209" t="n">
-        <v>34.08633781058959</v>
-      </c>
-      <c r="H209" t="n">
-        <v>67.46075588204579</v>
+        <v>61.72352565003491</v>
       </c>
     </row>
     <row r="210">
@@ -16935,16 +17159,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>77.98731648523541</v>
+        <v>79.33345306789008</v>
       </c>
       <c r="F210" t="n">
-        <v>84.82441053007535</v>
+        <v>98.82752370838134</v>
       </c>
       <c r="G210" t="n">
-        <v>46.58660837539282</v>
-      </c>
-      <c r="H210" t="n">
-        <v>80.55612063676776</v>
+        <v>66.74744871649263</v>
       </c>
     </row>
     <row r="211">
@@ -16964,16 +17185,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>75.01387145678054</v>
+        <v>76.08795994836407</v>
       </c>
       <c r="F211" t="n">
-        <v>80.50950161933768</v>
+        <v>97.46095269401543</v>
       </c>
       <c r="G211" t="n">
-        <v>43.76883742280364</v>
-      </c>
-      <c r="H211" t="n">
-        <v>75.76762438880877</v>
+        <v>61.82279556195236</v>
       </c>
     </row>
     <row r="212">
@@ -16993,16 +17211,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>76.99313416405197</v>
+        <v>77.37239417147066</v>
       </c>
       <c r="F212" t="n">
-        <v>79.64512898956083</v>
+        <v>99.21008603171408</v>
       </c>
       <c r="G212" t="n">
-        <v>49.69412824372556</v>
-      </c>
-      <c r="H212" t="n">
-        <v>78.60695810350772</v>
+        <v>65.37029547745222</v>
       </c>
     </row>
     <row r="213">
@@ -17022,16 +17237,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>66.05109916520377</v>
+        <v>67.81249153620584</v>
       </c>
       <c r="F213" t="n">
-        <v>63.28701143586401</v>
+        <v>93.23011184060782</v>
       </c>
       <c r="G213" t="n">
-        <v>33.8151614869993</v>
-      </c>
-      <c r="H213" t="n">
-        <v>67.81332248915356</v>
+        <v>53.1694296175427</v>
       </c>
     </row>
     <row r="214">
@@ -17051,16 +17263,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.99101879881864</v>
+        <v>61.35457486808474</v>
       </c>
       <c r="F214" t="n">
-        <v>31.39556218197463</v>
+        <v>74.45404794392428</v>
       </c>
       <c r="G214" t="n">
-        <v>28.67657408433642</v>
-      </c>
-      <c r="H214" t="n">
-        <v>66.94813962151878</v>
+        <v>44.65857654618515</v>
       </c>
     </row>
     <row r="215">
@@ -17080,16 +17289,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.17479312436544</v>
+        <v>53.57893073165234</v>
       </c>
       <c r="F215" t="n">
-        <v>39.07413581939724</v>
+        <v>26.00664761827824</v>
       </c>
       <c r="G215" t="n">
-        <v>26.95091865411738</v>
-      </c>
-      <c r="H215" t="n">
-        <v>42.23205713080628</v>
+        <v>48.66381050413848</v>
       </c>
     </row>
     <row r="216">
@@ -17109,16 +17315,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>65.60791778983702</v>
+        <v>70.6867786240136</v>
       </c>
       <c r="F216" t="n">
-        <v>66.22071069339576</v>
+        <v>83.97642885654675</v>
       </c>
       <c r="G216" t="n">
-        <v>33.51239234730339</v>
-      </c>
-      <c r="H216" t="n">
-        <v>65.3201181852853</v>
+        <v>60.05205076699061</v>
       </c>
     </row>
     <row r="217">
@@ -17138,16 +17341,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>72.4079190440833</v>
+        <v>72.443120723813</v>
       </c>
       <c r="F217" t="n">
-        <v>75.60395653899927</v>
+        <v>93.69593006150207</v>
       </c>
       <c r="G217" t="n">
-        <v>50.17803325359658</v>
-      </c>
-      <c r="H217" t="n">
-        <v>65.8829009467797</v>
+        <v>70.88463846560194</v>
       </c>
     </row>
     <row r="218">
@@ -17167,16 +17367,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>60.06219133877921</v>
+        <v>64.05436023844197</v>
       </c>
       <c r="F218" t="n">
-        <v>58.64952913683367</v>
+        <v>80.04587503211287</v>
       </c>
       <c r="G218" t="n">
-        <v>29.77731986184545</v>
-      </c>
-      <c r="H218" t="n">
-        <v>59.51094572114886</v>
+        <v>47.70291899643214</v>
       </c>
     </row>
     <row r="219">
@@ -17196,16 +17393,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>79.04906082846449</v>
+        <v>76.60793168183693</v>
       </c>
       <c r="F219" t="n">
-        <v>85.388729941574</v>
+        <v>98.95961444209283</v>
       </c>
       <c r="G219" t="n">
-        <v>47.515026744568</v>
-      </c>
-      <c r="H219" t="n">
-        <v>83.3721109591018</v>
+        <v>66.01202315499238</v>
       </c>
     </row>
     <row r="220">
@@ -17225,16 +17419,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>78.49879511525903</v>
+        <v>77.57868990437203</v>
       </c>
       <c r="F220" t="n">
-        <v>85.11352362678072</v>
+        <v>99.00432127976818</v>
       </c>
       <c r="G220" t="n">
-        <v>48.57475029113019</v>
-      </c>
-      <c r="H220" t="n">
-        <v>80.39797457088046</v>
+        <v>67.03504958206449</v>
       </c>
     </row>
     <row r="221">
@@ -17254,16 +17445,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>71.52618332428015</v>
+        <v>72.40798316217089</v>
       </c>
       <c r="F221" t="n">
-        <v>74.69147115342157</v>
+        <v>93.78096312991588</v>
       </c>
       <c r="G221" t="n">
-        <v>46.87642514704595</v>
-      </c>
-      <c r="H221" t="n">
-        <v>65.46605902389523</v>
+        <v>67.70401623479142</v>
       </c>
     </row>
     <row r="222">
@@ -17283,16 +17471,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.21391953529297</v>
+        <v>65.39177861719386</v>
       </c>
       <c r="F222" t="n">
-        <v>54.74274324049557</v>
+        <v>75.61317851625763</v>
       </c>
       <c r="G222" t="n">
-        <v>37.05724025079807</v>
-      </c>
-      <c r="H222" t="n">
-        <v>62.45801513836767</v>
+        <v>56.42285449209073</v>
       </c>
     </row>
     <row r="223">
@@ -17312,16 +17497,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.54519766272645</v>
+        <v>53.43587475364187</v>
       </c>
       <c r="F223" t="n">
-        <v>28.40440819317033</v>
+        <v>21.29228394486061</v>
       </c>
       <c r="G223" t="n">
-        <v>27.83451567388474</v>
-      </c>
-      <c r="H223" t="n">
-        <v>26.8226727668645</v>
+        <v>47.29436502939397</v>
       </c>
     </row>
     <row r="224">
@@ -17341,16 +17523,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.60951992321057</v>
+        <v>61.91702909603853</v>
       </c>
       <c r="F224" t="n">
-        <v>40.35468116717684</v>
+        <v>70.39755296811308</v>
       </c>
       <c r="G224" t="n">
-        <v>29.54783668540322</v>
-      </c>
-      <c r="H224" t="n">
-        <v>63.90454655104865</v>
+        <v>48.57761232556776</v>
       </c>
     </row>
     <row r="225">
@@ -17370,16 +17549,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.0238463142192</v>
+        <v>66.81711234313832</v>
       </c>
       <c r="F225" t="n">
-        <v>56.34950129765895</v>
+        <v>81.32231931565045</v>
       </c>
       <c r="G225" t="n">
-        <v>37.61986833629883</v>
-      </c>
-      <c r="H225" t="n">
-        <v>64.63193286598054</v>
+        <v>57.51111549239663</v>
       </c>
     </row>
     <row r="226">
@@ -17399,16 +17575,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>40.10335088554693</v>
+        <v>55.56020143328975</v>
       </c>
       <c r="F226" t="n">
-        <v>33.67357694140761</v>
+        <v>35.29453547172163</v>
       </c>
       <c r="G226" t="n">
-        <v>28.55974679055346</v>
-      </c>
-      <c r="H226" t="n">
-        <v>40.93091682103893</v>
+        <v>48.47307255143618</v>
       </c>
     </row>
     <row r="227">
@@ -17428,16 +17601,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>73.10019478756723</v>
+        <v>73.43593627314735</v>
       </c>
       <c r="F227" t="n">
-        <v>76.91276435187234</v>
+        <v>96.67410143754101</v>
       </c>
       <c r="G227" t="n">
-        <v>50.05871702812573</v>
-      </c>
-      <c r="H227" t="n">
-        <v>65.8511654875722</v>
+        <v>70.38318473264341</v>
       </c>
     </row>
     <row r="228">
@@ -17457,16 +17627,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.47072276821329</v>
+        <v>52.57865968108012</v>
       </c>
       <c r="F228" t="n">
-        <v>38.08516502675743</v>
+        <v>24.39612218968029</v>
       </c>
       <c r="G228" t="n">
-        <v>25.3413749937972</v>
-      </c>
-      <c r="H228" t="n">
-        <v>43.94152688026109</v>
+        <v>46.70796484179391</v>
       </c>
     </row>
     <row r="229">
@@ -17486,16 +17653,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>78.63297531967176</v>
+        <v>77.99001542537682</v>
       </c>
       <c r="F229" t="n">
-        <v>85.29301293651505</v>
+        <v>99.01821488917589</v>
       </c>
       <c r="G229" t="n">
-        <v>48.36964525858421</v>
-      </c>
-      <c r="H229" t="n">
-        <v>80.9291392407558</v>
+        <v>67.24592044831866</v>
       </c>
     </row>
     <row r="230">
@@ -17515,16 +17679,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>57.38053465939209</v>
+        <v>63.52288640084375</v>
       </c>
       <c r="F230" t="n">
-        <v>43.00997320250057</v>
+        <v>75.08127469593992</v>
       </c>
       <c r="G230" t="n">
-        <v>30.35468158377008</v>
-      </c>
-      <c r="H230" t="n">
-        <v>64.08577154862252</v>
+        <v>49.59224173479164</v>
       </c>
     </row>
     <row r="231">
@@ -17544,16 +17705,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.92361512257212</v>
+        <v>53.9627596314708</v>
       </c>
       <c r="F231" t="n">
-        <v>34.49993656838146</v>
+        <v>26.14892176064662</v>
       </c>
       <c r="G231" t="n">
-        <v>25.88199062729373</v>
-      </c>
-      <c r="H231" t="n">
-        <v>29.12269395295357</v>
+        <v>48.14923977242662</v>
       </c>
     </row>
   </sheetData>
@@ -19735,7 +19893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H205"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19744,254 +19902,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>var1</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
       <c r="C1" s="16" t="inlineStr">
         <is>
-          <t>Cluster</t>
+          <t>var3</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>var4</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
         <is>
-          <t>1) AVAILABILITY</t>
+          <t>var5</t>
         </is>
       </c>
       <c r="F1" s="16" t="inlineStr">
         <is>
-          <t>1.1) USAGE</t>
+          <t>var6</t>
         </is>
       </c>
       <c r="G1" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.2) QUALITY   </t>
+          <t>var7</t>
         </is>
       </c>
       <c r="H1" s="16" t="inlineStr">
         <is>
-          <t>1.3) INFRASTRUCTURE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>78.6 Canada</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>80.0 Canada</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>54.7 Canada</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>79.6 Canada</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>78.9 France</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>86.7 France</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>50.6 France</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>78.2 France</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>78.5 Germany</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>89.0 Germany</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>42.9 Germany</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>82.3 Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>75.6 Italy</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>79.5 Italy</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>40.1 Italy</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>82.7 Italy</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>77.3 Japan</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>85.1 Japan</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>46.8 Japan</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>77.5 Japan</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>72.0 Russia</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>79.3 Russia</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>40.6 Russia</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>68.1 Russia</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>78.5 United Kingdom</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>90.7 United Kingdom</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>40.7 United Kingdom</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>82.5 United Kingdom</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>79.1 United States</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>86.0 United States</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>46.7 United States</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>83.8 United States</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>77.36 G8</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>84.81 G8</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>45.14 G8</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>79.55 G8</t>
+          <t>var8</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
+        <is>
+          <t>var9</t>
+        </is>
+      </c>
+      <c r="J1" s="16" t="inlineStr">
+        <is>
+          <t>var10</t>
+        </is>
+      </c>
+      <c r="K1" s="16" t="inlineStr">
+        <is>
+          <t>var11</t>
+        </is>
+      </c>
+      <c r="L1" s="16" t="inlineStr">
+        <is>
+          <t>var12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>indicators\ODS2020.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>indicators\ODS2020.xlsx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>indicators\ODS2020.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hoja1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hoja1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hoja1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020 Global Index Score (0-100)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Goal 1: No Poverty</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Goal 2: No hunger</t>
         </is>
       </c>
     </row>
@@ -20006,7 +20025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="C1:G231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20015,66 +20034,869 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>var1</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
       <c r="C1" s="16" t="inlineStr">
         <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="D1" s="16" t="inlineStr">
-        <is>
-          <t>var4</t>
+          <t>Cluster</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
         <is>
-          <t>var5</t>
+          <t>2020 Global Index Score (0-100)</t>
         </is>
       </c>
       <c r="F1" s="16" t="inlineStr">
         <is>
-          <t>var6</t>
+          <t>Goal 1: No Poverty</t>
         </is>
       </c>
       <c r="G1" s="16" t="inlineStr">
         <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="H1" s="16" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
-      <c r="I1" s="16" t="inlineStr">
-        <is>
-          <t>var9</t>
-        </is>
-      </c>
-      <c r="J1" s="16" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="K1" s="16" t="inlineStr">
-        <is>
-          <t>var11</t>
-        </is>
-      </c>
-      <c r="L1" s="16" t="inlineStr">
-        <is>
-          <t>var12</t>
-        </is>
-      </c>
+          <t>Goal 2: No hunger</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.19 Canada</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>99.23 Canada</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>63.84 Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.13 France</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>99.54 France</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>70.34 France</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.77 Germany</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>99.64 Germany</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>70.05 Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>77.01 Italy</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>97.31 Italy</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>66.93 Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.17 Japan</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>98.99 Japan</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>74.12 Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>71.92 Russia</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>99.96 Russia</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>50.07 Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="C163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="C164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="C165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="C166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="C168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="C169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="C183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="C184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>79.79 United Kingdom</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>99.69 United Kingdom</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>67.45 United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>76.43 United States</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>98.93 United States</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>66.26 United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="C197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="C200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>77.19 G8</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>99.17 G8</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>65.46 G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="C219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="C220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="C224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="C227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/static/filtros.xlsx
+++ b/static/filtros.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Filtros" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cluster" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sunburst" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vertex" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Cluster_var" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Cluster_table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sunburst" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Vertex" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Parallel" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Cluster_var" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -23,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +47,16 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -82,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -170,6 +181,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -179,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -192,18 +233,21 @@
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -549,22 +593,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="9.1796875"/>
-    <col customWidth="1" max="2" min="2" style="12" width="40"/>
-    <col customWidth="1" max="7" min="3" style="12" width="2.1796875"/>
-    <col customWidth="1" max="8" min="8" style="12" width="18.26953125"/>
-    <col customWidth="1" max="9" min="9" style="12" width="2.1796875"/>
-    <col customWidth="1" max="11" min="10" style="12" width="3.7265625"/>
-    <col customWidth="1" max="12" min="12" style="12" width="7"/>
-    <col customWidth="1" max="13" min="13" style="12" width="25"/>
+    <col customWidth="1" max="1" min="1" style="16" width="9.1796875"/>
+    <col customWidth="1" max="2" min="2" style="16" width="40"/>
+    <col customWidth="1" max="7" min="3" style="16" width="2.1796875"/>
+    <col customWidth="1" max="8" min="8" style="16" width="18.26953125"/>
+    <col customWidth="1" max="9" min="9" style="16" width="2.1796875"/>
+    <col customWidth="1" max="11" min="10" style="16" width="3.7265625"/>
+    <col customWidth="1" max="12" min="12" style="16" width="7"/>
+    <col customWidth="1" max="13" min="13" style="16" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -626,7 +670,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -654,7 +698,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,7 +726,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -701,7 +745,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -729,7 +773,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -749,7 +793,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -777,7 +821,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -805,7 +849,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -833,7 +877,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -861,7 +905,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -889,7 +933,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -908,7 +952,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -927,7 +971,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -955,7 +999,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -983,7 +1027,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1011,7 +1055,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1039,7 +1083,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1067,7 +1111,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1095,7 +1139,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1123,7 +1167,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1151,7 +1195,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1179,7 +1223,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1207,7 +1251,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1235,7 +1279,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1254,7 +1298,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1282,7 +1326,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1310,7 +1354,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1338,7 +1382,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1366,7 +1410,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1394,7 +1438,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1450,7 +1494,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1478,7 +1522,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1506,7 +1550,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1534,7 +1578,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1562,7 +1606,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1590,7 +1634,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1618,7 +1662,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1646,7 +1690,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1674,7 +1718,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1702,7 +1746,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1730,7 +1774,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1758,7 +1802,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1777,7 +1821,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1805,7 +1849,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1833,7 +1877,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1861,7 +1905,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1889,7 +1933,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1908,7 +1952,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1936,7 +1980,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1955,7 +1999,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1983,7 +2027,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2011,7 +2055,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2039,7 +2083,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2058,7 +2102,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2077,7 +2121,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2105,7 +2149,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2133,7 +2177,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2161,7 +2205,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2189,7 +2233,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2245,7 +2289,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2273,7 +2317,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2301,7 +2345,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2357,7 +2401,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2385,7 +2429,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2413,7 +2457,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2432,7 +2476,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2460,7 +2504,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -2488,7 +2532,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2507,7 +2551,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2535,7 +2579,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2563,7 +2607,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2591,7 +2635,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2619,7 +2663,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2647,7 +2691,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2675,7 +2719,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2703,7 +2747,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2731,7 +2775,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2759,7 +2803,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2787,7 +2831,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2843,7 +2887,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2874,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2899,7 +2943,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2927,7 +2971,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2955,7 +2999,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2983,7 +3027,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3002,7 +3046,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3021,7 +3065,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3068,7 +3112,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3087,7 +3131,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3115,7 +3159,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -3143,7 +3187,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3171,7 +3215,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3199,7 +3243,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3227,7 +3271,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -3255,7 +3299,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -3274,7 +3318,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -3293,7 +3337,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3321,7 +3365,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3349,7 +3393,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3377,7 +3421,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3405,7 +3449,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -3433,7 +3477,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3461,7 +3505,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -3489,7 +3533,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3517,7 +3561,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3536,7 +3580,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3564,7 +3608,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3592,7 +3636,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3620,7 +3664,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3639,7 +3683,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3667,7 +3711,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3686,7 +3730,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3714,7 +3758,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3742,7 +3786,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3770,7 +3814,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3798,7 +3842,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -3826,7 +3870,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3854,7 +3898,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3873,7 +3917,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3901,7 +3945,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -3929,7 +3973,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3957,7 +4001,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3985,7 +4029,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -4013,7 +4057,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -4041,7 +4085,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -4060,7 +4104,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -4088,7 +4132,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -4107,7 +4151,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -4135,7 +4179,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -4154,7 +4198,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -4182,7 +4226,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4210,7 +4254,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4238,7 +4282,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -4266,7 +4310,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -4294,7 +4338,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -4322,7 +4366,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -4350,7 +4394,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -4369,7 +4413,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -4425,7 +4469,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -4453,7 +4497,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -4472,7 +4516,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -4491,7 +4535,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -4510,7 +4554,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -4529,7 +4573,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -4548,7 +4592,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -4576,7 +4620,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4595,7 +4639,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4623,7 +4667,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4651,7 +4695,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4670,7 +4714,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4698,7 +4742,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4726,7 +4770,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4754,7 +4798,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4782,7 +4826,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4801,7 +4845,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -4829,7 +4873,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -4857,7 +4901,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4885,7 +4929,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4913,7 +4957,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4941,7 +4985,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4969,7 +5013,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -4997,7 +5041,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -5025,7 +5069,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -5053,7 +5097,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -5072,7 +5116,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -5091,7 +5135,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -5119,7 +5163,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -5147,7 +5191,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5175,7 +5219,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -5203,7 +5247,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -5222,7 +5266,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -5250,7 +5294,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -5278,7 +5322,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -5306,7 +5350,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -5334,7 +5378,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -5353,7 +5397,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -5381,7 +5425,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -5409,7 +5453,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -5481,7 +5525,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -5506,7 +5550,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -5531,7 +5575,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -5556,7 +5600,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -5572,7 +5616,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -5597,7 +5641,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -5622,7 +5666,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -5638,7 +5682,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -5663,7 +5707,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -5679,7 +5723,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -5695,7 +5739,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -5711,7 +5755,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -5727,7 +5771,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -5743,7 +5787,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -5759,7 +5803,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -5772,7 +5816,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -5798,7 +5842,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -5811,7 +5855,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -5824,7 +5868,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -5837,7 +5881,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -5850,7 +5894,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -5863,7 +5907,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -5876,7 +5920,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -5889,7 +5933,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -5902,7 +5946,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -5915,7 +5959,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -5928,7 +5972,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -5941,7 +5985,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -5954,7 +5998,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -5967,7 +6011,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -5980,7 +6024,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -5993,7 +6037,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -6006,7 +6050,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -6019,7 +6063,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -6032,7 +6076,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -6045,7 +6089,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -6058,7 +6102,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -6071,7 +6115,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -6084,7 +6128,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -6097,7 +6141,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -6110,7 +6154,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -6123,9 +6167,1361 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6149,8 +7545,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="12" width="24.7265625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="12" width="11.81640625"/>
+    <col customWidth="1" max="2" min="2" style="16" width="24.7265625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10994,7 +12390,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="12" width="2.1796875"/>
+    <col customWidth="1" max="3" min="3" style="16" width="2.1796875"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -12020,17 +13416,17 @@
   </sheetPr>
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="12" width="40"/>
-    <col customWidth="1" max="3" min="3" style="12" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="12" width="13.90625"/>
-    <col customWidth="1" max="5" min="5" style="12" width="18.1796875"/>
-    <col customWidth="1" max="6" min="6" style="12" width="17.81640625"/>
+    <col customWidth="1" max="2" min="1" style="16" width="40"/>
+    <col customWidth="1" max="3" min="3" style="16" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="16" width="13.90625"/>
+    <col customWidth="1" max="5" min="5" style="16" width="18.1796875"/>
+    <col customWidth="1" max="6" min="6" style="16" width="17.81640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12044,7 +13440,7 @@
           <t>iso_alpha</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Cluster</t>
         </is>
@@ -12054,23 +13450,19 @@
           <t>Cluster_name</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>2020 Global Index Score (0-100)</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
-        <is>
-          <t>Goal 1: No Poverty</t>
-        </is>
-      </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>Goal 2: No hunger</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr"/>
-      <c r="I1" s="16" t="inlineStr"/>
+      <c r="G1" s="14" t="n"/>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="13" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12083,7 +13475,7 @@
           <t>AFG</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12091,7 +13483,7 @@
       <c r="E2" t="n">
         <v>54.22420643621086</v>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>45.24614285714286</v>
       </c>
     </row>
@@ -12106,7 +13498,7 @@
           <t>ALB</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12115,9 +13507,6 @@
         <v>70.81703267973857</v>
       </c>
       <c r="F3" t="n">
-        <v>95.5355</v>
-      </c>
-      <c r="G3" t="n">
         <v>48.87600000000001</v>
       </c>
     </row>
@@ -12132,7 +13521,7 @@
           <t>DZA</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12141,9 +13530,6 @@
         <v>72.26962212885154</v>
       </c>
       <c r="F4" t="n">
-        <v>97.881</v>
-      </c>
-      <c r="G4" t="n">
         <v>54.58057142857144</v>
       </c>
     </row>
@@ -12158,7 +13544,7 @@
           <t>AND</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12175,7 +13561,7 @@
           <t>AGO</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -12184,9 +13570,6 @@
         <v>52.58927717086834</v>
       </c>
       <c r="F6" t="n">
-        <v>43.9145</v>
-      </c>
-      <c r="G6" t="n">
         <v>47.21528571428571</v>
       </c>
     </row>
@@ -12201,7 +13584,7 @@
           <t>ATG</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12218,7 +13601,7 @@
           <t>ARG</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12227,9 +13610,6 @@
         <v>73.16805564892624</v>
       </c>
       <c r="F8" t="n">
-        <v>96.715</v>
-      </c>
-      <c r="G8" t="n">
         <v>64.52014285714286</v>
       </c>
     </row>
@@ -12244,7 +13624,7 @@
           <t>ARM</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12253,9 +13633,6 @@
         <v>69.86036322892792</v>
       </c>
       <c r="F9" t="n">
-        <v>93.18350000000001</v>
-      </c>
-      <c r="G9" t="n">
         <v>58.966</v>
       </c>
     </row>
@@ -12270,7 +13647,7 @@
           <t>AUS</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12279,9 +13656,6 @@
         <v>74.87032364073836</v>
       </c>
       <c r="F10" t="n">
-        <v>99.0305</v>
-      </c>
-      <c r="G10" t="n">
         <v>56.17928571428571</v>
       </c>
     </row>
@@ -12296,7 +13670,10 @@
           <t>AUT</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12305,9 +13682,6 @@
         <v>80.69854630683044</v>
       </c>
       <c r="F11" t="n">
-        <v>99.19200000000001</v>
-      </c>
-      <c r="G11" t="n">
         <v>71.62214285714286</v>
       </c>
     </row>
@@ -12322,7 +13696,7 @@
           <t>AZE</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12331,9 +13705,6 @@
         <v>72.60889777608014</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
         <v>61.75985714285714</v>
       </c>
     </row>
@@ -12348,7 +13719,7 @@
           <t>BHS</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12365,7 +13736,7 @@
           <t>BHR</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12373,7 +13744,7 @@
       <c r="E14" t="n">
         <v>68.83185367475663</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>66.39200000000001</v>
       </c>
     </row>
@@ -12388,7 +13759,7 @@
           <t>BGD</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -12397,9 +13768,6 @@
         <v>63.50642394957984</v>
       </c>
       <c r="F15" t="n">
-        <v>66.94550000000001</v>
-      </c>
-      <c r="G15" t="n">
         <v>55.28971428571429</v>
       </c>
     </row>
@@ -12414,7 +13782,7 @@
           <t>BRB</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12423,9 +13791,6 @@
         <v>68.28651775120305</v>
       </c>
       <c r="F16" t="n">
-        <v>92.31950000000001</v>
-      </c>
-      <c r="G16" t="n">
         <v>48.94628571428571</v>
       </c>
     </row>
@@ -12440,7 +13805,7 @@
           <t>BLR</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12449,9 +13814,6 @@
         <v>78.75914060988032</v>
       </c>
       <c r="F17" t="n">
-        <v>99.9115</v>
-      </c>
-      <c r="G17" t="n">
         <v>61.32900000000001</v>
       </c>
     </row>
@@ -12466,7 +13828,10 @@
           <t>BEL</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12475,9 +13840,6 @@
         <v>79.95540431300724</v>
       </c>
       <c r="F18" t="n">
-        <v>99.54300000000001</v>
-      </c>
-      <c r="G18" t="n">
         <v>69.36928571428572</v>
       </c>
     </row>
@@ -12492,7 +13854,7 @@
           <t>BLZ</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -12501,9 +13863,6 @@
         <v>65.07832871960379</v>
       </c>
       <c r="F19" t="n">
-        <v>68.7025</v>
-      </c>
-      <c r="G19" t="n">
         <v>59.78514285714285</v>
       </c>
     </row>
@@ -12518,7 +13877,7 @@
           <t>BEN</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -12527,9 +13886,6 @@
         <v>53.31207189542484</v>
       </c>
       <c r="F20" t="n">
-        <v>18.485</v>
-      </c>
-      <c r="G20" t="n">
         <v>57.28100000000001</v>
       </c>
     </row>
@@ -12544,7 +13900,7 @@
           <t>BTN</t>
         </is>
       </c>
-      <c r="D21" s="13" t="inlineStr">
+      <c r="D21" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12553,9 +13909,6 @@
         <v>69.26511056022409</v>
       </c>
       <c r="F21" t="n">
-        <v>89.8155</v>
-      </c>
-      <c r="G21" t="n">
         <v>54.2216</v>
       </c>
     </row>
@@ -12570,7 +13923,7 @@
           <t>BOL</t>
         </is>
       </c>
-      <c r="D22" s="13" t="inlineStr">
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12579,9 +13932,6 @@
         <v>69.26780066420507</v>
       </c>
       <c r="F22" t="n">
-        <v>85.82550000000001</v>
-      </c>
-      <c r="G22" t="n">
         <v>56.37885714285715</v>
       </c>
     </row>
@@ -12596,7 +13946,7 @@
           <t>BIH</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12605,9 +13955,6 @@
         <v>73.47885854341737</v>
       </c>
       <c r="F23" t="n">
-        <v>99.7285</v>
-      </c>
-      <c r="G23" t="n">
         <v>61.88028571428572</v>
       </c>
     </row>
@@ -12622,7 +13969,7 @@
           <t>BWA</t>
         </is>
       </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -12631,9 +13978,6 @@
         <v>61.45378828841882</v>
       </c>
       <c r="F24" t="n">
-        <v>58.5315</v>
-      </c>
-      <c r="G24" t="n">
         <v>31.76428571428571</v>
       </c>
     </row>
@@ -12648,7 +13992,7 @@
           <t>BRA</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="D25" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12657,9 +14001,6 @@
         <v>72.67283197945844</v>
       </c>
       <c r="F25" t="n">
-        <v>86.352</v>
-      </c>
-      <c r="G25" t="n">
         <v>66.60385714285714</v>
       </c>
     </row>
@@ -12674,7 +14015,7 @@
           <t>BRN</t>
         </is>
       </c>
-      <c r="D26" s="13" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -12682,7 +14023,7 @@
       <c r="E26" t="n">
         <v>68.15180410830999</v>
       </c>
-      <c r="G26" t="n">
+      <c r="F26" t="n">
         <v>49.15771428571428</v>
       </c>
     </row>
@@ -12697,7 +14038,10 @@
           <t>BGR</t>
         </is>
       </c>
-      <c r="D27" s="13" t="inlineStr">
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12706,9 +14050,6 @@
         <v>74.76597577030813</v>
       </c>
       <c r="F27" t="n">
-        <v>97.17400000000001</v>
-      </c>
-      <c r="G27" t="n">
         <v>63.57514285714285</v>
       </c>
     </row>
@@ -12723,7 +14064,7 @@
           <t>BFA</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -12732,9 +14073,6 @@
         <v>55.21757036124796</v>
       </c>
       <c r="F28" t="n">
-        <v>27.149</v>
-      </c>
-      <c r="G28" t="n">
         <v>53.01971428571429</v>
       </c>
     </row>
@@ -12749,7 +14087,7 @@
           <t>BDI</t>
         </is>
       </c>
-      <c r="D29" s="13" t="inlineStr">
+      <c r="D29" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -12758,9 +14096,6 @@
         <v>53.4553860942078</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
         <v>50.947</v>
       </c>
     </row>
@@ -12775,7 +14110,7 @@
           <t>CPV</t>
         </is>
       </c>
-      <c r="D30" s="13" t="inlineStr">
+      <c r="D30" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -12784,9 +14119,6 @@
         <v>67.17833363499246</v>
       </c>
       <c r="F30" t="n">
-        <v>54.6845</v>
-      </c>
-      <c r="G30" t="n">
         <v>40.18519999999999</v>
       </c>
     </row>
@@ -12801,7 +14133,7 @@
           <t>KHM</t>
         </is>
       </c>
-      <c r="D31" s="13" t="inlineStr">
+      <c r="D31" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12810,9 +14142,6 @@
         <v>64.38670718954249</v>
       </c>
       <c r="F31" t="n">
-        <v>87.9345</v>
-      </c>
-      <c r="G31" t="n">
         <v>58.10014285714286</v>
       </c>
     </row>
@@ -12827,7 +14156,7 @@
           <t>CMR</t>
         </is>
       </c>
-      <c r="D32" s="13" t="inlineStr">
+      <c r="D32" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -12836,9 +14165,6 @@
         <v>56.53505863678805</v>
       </c>
       <c r="F32" t="n">
-        <v>50.734</v>
-      </c>
-      <c r="G32" t="n">
         <v>57.01657142857142</v>
       </c>
     </row>
@@ -12853,10 +14179,7 @@
           <t>CAN</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13" t="inlineStr">
+      <c r="D33" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12865,9 +14188,6 @@
         <v>78.18972804352509</v>
       </c>
       <c r="F33" t="n">
-        <v>99.2295</v>
-      </c>
-      <c r="G33" t="n">
         <v>63.83728571428571</v>
       </c>
     </row>
@@ -12882,7 +14202,7 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="D34" s="13" t="inlineStr">
+      <c r="D34" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -12891,9 +14211,6 @@
         <v>38.53661699990342</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
         <v>36.72085714285714</v>
       </c>
     </row>
@@ -12908,7 +14225,7 @@
           <t>TCD</t>
         </is>
       </c>
-      <c r="D35" s="13" t="inlineStr">
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -12917,9 +14234,6 @@
         <v>43.75071452558035</v>
       </c>
       <c r="F35" t="n">
-        <v>23.161</v>
-      </c>
-      <c r="G35" t="n">
         <v>33.01714285714286</v>
       </c>
     </row>
@@ -12934,7 +14248,7 @@
           <t>CHL</t>
         </is>
       </c>
-      <c r="D36" s="13" t="inlineStr">
+      <c r="D36" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12943,9 +14257,6 @@
         <v>77.41916311858076</v>
       </c>
       <c r="F36" t="n">
-        <v>98.95650000000001</v>
-      </c>
-      <c r="G36" t="n">
         <v>67.86285714285714</v>
       </c>
     </row>
@@ -12960,7 +14271,7 @@
           <t>CHN</t>
         </is>
       </c>
-      <c r="D37" s="13" t="inlineStr">
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12969,9 +14280,6 @@
         <v>73.89361975388447</v>
       </c>
       <c r="F37" t="n">
-        <v>97.95950000000001</v>
-      </c>
-      <c r="G37" t="n">
         <v>76.39357142857143</v>
       </c>
     </row>
@@ -12986,7 +14294,7 @@
           <t>COL</t>
         </is>
       </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="D38" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -12995,9 +14303,6 @@
         <v>70.90539164332401</v>
       </c>
       <c r="F38" t="n">
-        <v>86.64250000000001</v>
-      </c>
-      <c r="G38" t="n">
         <v>59.43885714285714</v>
       </c>
     </row>
@@ -13012,7 +14317,7 @@
           <t>COM</t>
         </is>
       </c>
-      <c r="D39" s="13" t="inlineStr">
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -13021,9 +14326,6 @@
         <v>53.07385714285714</v>
       </c>
       <c r="F39" t="n">
-        <v>49.67400000000001</v>
-      </c>
-      <c r="G39" t="n">
         <v>45.81733333333333</v>
       </c>
     </row>
@@ -13038,7 +14340,7 @@
           <t>COD</t>
         </is>
       </c>
-      <c r="D40" s="13" t="inlineStr">
+      <c r="D40" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -13047,9 +14349,6 @@
         <v>49.71074089635855</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
         <v>47.65350000000001</v>
       </c>
     </row>
@@ -13064,7 +14363,7 @@
           <t>COG</t>
         </is>
       </c>
-      <c r="D41" s="13" t="inlineStr">
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -13073,9 +14372,6 @@
         <v>55.24834852941176</v>
       </c>
       <c r="F41" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G41" t="n">
         <v>42.17928571428572</v>
       </c>
     </row>
@@ -13090,7 +14386,7 @@
           <t>CRI</t>
         </is>
       </c>
-      <c r="D42" s="13" t="inlineStr">
+      <c r="D42" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13099,9 +14395,6 @@
         <v>75.07765354808589</v>
       </c>
       <c r="F42" t="n">
-        <v>97.6585</v>
-      </c>
-      <c r="G42" t="n">
         <v>55.03428571428571</v>
       </c>
     </row>
@@ -13116,7 +14409,7 @@
           <t>CIV</t>
         </is>
       </c>
-      <c r="D43" s="13" t="inlineStr">
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13125,9 +14418,6 @@
         <v>57.90914243697479</v>
       </c>
       <c r="F43" t="n">
-        <v>47.793</v>
-      </c>
-      <c r="G43" t="n">
         <v>56.41685714285715</v>
       </c>
     </row>
@@ -13142,7 +14432,10 @@
           <t>HRV</t>
         </is>
       </c>
-      <c r="D44" s="13" t="inlineStr">
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13151,9 +14444,6 @@
         <v>78.40059418767508</v>
       </c>
       <c r="F44" t="n">
-        <v>98.46600000000001</v>
-      </c>
-      <c r="G44" t="n">
         <v>68.83928571428572</v>
       </c>
     </row>
@@ -13168,7 +14458,7 @@
           <t>CUB</t>
         </is>
       </c>
-      <c r="D45" s="13" t="inlineStr">
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13176,7 +14466,7 @@
       <c r="E45" t="n">
         <v>72.58152218568587</v>
       </c>
-      <c r="G45" t="n">
+      <c r="F45" t="n">
         <v>58.41514285714286</v>
       </c>
     </row>
@@ -13191,7 +14481,10 @@
           <t>CYP</t>
         </is>
       </c>
-      <c r="D46" s="13" t="inlineStr">
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13200,9 +14493,6 @@
         <v>75.21420805860805</v>
       </c>
       <c r="F46" t="n">
-        <v>99.881</v>
-      </c>
-      <c r="G46" t="n">
         <v>53.88128571428571</v>
       </c>
     </row>
@@ -13217,7 +14507,10 @@
           <t>CZE</t>
         </is>
       </c>
-      <c r="D47" s="13" t="inlineStr">
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13226,9 +14519,6 @@
         <v>80.57667645119587</v>
       </c>
       <c r="F47" t="n">
-        <v>99.41499999999999</v>
-      </c>
-      <c r="G47" t="n">
         <v>63.98114285714286</v>
       </c>
     </row>
@@ -13243,7 +14533,10 @@
           <t>DNK</t>
         </is>
       </c>
-      <c r="D48" s="13" t="inlineStr">
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13252,9 +14545,6 @@
         <v>84.558775788264</v>
       </c>
       <c r="F48" t="n">
-        <v>99.5795</v>
-      </c>
-      <c r="G48" t="n">
         <v>71.40914285714287</v>
       </c>
     </row>
@@ -13269,7 +14559,7 @@
           <t>DJI</t>
         </is>
       </c>
-      <c r="D49" s="13" t="inlineStr">
+      <c r="D49" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13278,9 +14568,6 @@
         <v>54.56479737802098</v>
       </c>
       <c r="F49" t="n">
-        <v>57.0085</v>
-      </c>
-      <c r="G49" t="n">
         <v>37.91485714285714</v>
       </c>
     </row>
@@ -13295,7 +14582,7 @@
           <t>DMA</t>
         </is>
       </c>
-      <c r="D50" s="13" t="inlineStr">
+      <c r="D50" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13312,7 +14599,7 @@
           <t>DOM</t>
         </is>
       </c>
-      <c r="D51" s="13" t="inlineStr">
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13321,9 +14608,6 @@
         <v>70.1650781512605</v>
       </c>
       <c r="F51" t="n">
-        <v>95.36450000000001</v>
-      </c>
-      <c r="G51" t="n">
         <v>54.37757142857144</v>
       </c>
     </row>
@@ -13338,7 +14622,7 @@
           <t>TLS</t>
         </is>
       </c>
-      <c r="D52" s="13" t="inlineStr">
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13355,7 +14639,7 @@
           <t>ECU</t>
         </is>
       </c>
-      <c r="D53" s="13" t="inlineStr">
+      <c r="D53" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13364,9 +14648,6 @@
         <v>74.26065121381886</v>
       </c>
       <c r="F53" t="n">
-        <v>88.355</v>
-      </c>
-      <c r="G53" t="n">
         <v>52.58257142857143</v>
       </c>
     </row>
@@ -13381,7 +14662,7 @@
           <t>EGY</t>
         </is>
       </c>
-      <c r="D54" s="13" t="inlineStr">
+      <c r="D54" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13390,9 +14671,6 @@
         <v>68.78855233426702</v>
       </c>
       <c r="F54" t="n">
-        <v>90.45050000000001</v>
-      </c>
-      <c r="G54" t="n">
         <v>59.29985714285715</v>
       </c>
     </row>
@@ -13407,7 +14685,7 @@
           <t>SLV</t>
         </is>
       </c>
-      <c r="D55" s="13" t="inlineStr">
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13416,9 +14694,6 @@
         <v>69.62419649859942</v>
       </c>
       <c r="F55" t="n">
-        <v>92.0605</v>
-      </c>
-      <c r="G55" t="n">
         <v>52.95014285714285</v>
       </c>
     </row>
@@ -13433,7 +14708,7 @@
           <t>GNQ</t>
         </is>
       </c>
-      <c r="D56" s="13" t="inlineStr">
+      <c r="D56" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13450,7 +14725,7 @@
           <t>ERI</t>
         </is>
       </c>
-      <c r="D57" s="13" t="inlineStr">
+      <c r="D57" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13467,7 +14742,10 @@
           <t>EST</t>
         </is>
       </c>
-      <c r="D58" s="13" t="inlineStr">
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13476,9 +14754,6 @@
         <v>80.06100023342673</v>
       </c>
       <c r="F58" t="n">
-        <v>99.70400000000001</v>
-      </c>
-      <c r="G58" t="n">
         <v>61.50842857142857</v>
       </c>
     </row>
@@ -13493,7 +14768,7 @@
           <t>SWZ</t>
         </is>
       </c>
-      <c r="D59" s="13" t="inlineStr">
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -13502,9 +14777,6 @@
         <v>53.40107348916577</v>
       </c>
       <c r="F59" t="n">
-        <v>22.9545</v>
-      </c>
-      <c r="G59" t="n">
         <v>42.04957142857143</v>
       </c>
     </row>
@@ -13519,7 +14791,7 @@
           <t>ETH</t>
         </is>
       </c>
-      <c r="D60" s="13" t="inlineStr">
+      <c r="D60" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -13528,9 +14800,6 @@
         <v>55.23246592614059</v>
       </c>
       <c r="F60" t="n">
-        <v>32.548</v>
-      </c>
-      <c r="G60" t="n">
         <v>53.21785714285714</v>
       </c>
     </row>
@@ -13545,7 +14814,7 @@
           <t>FJI</t>
         </is>
       </c>
-      <c r="D61" s="13" t="inlineStr">
+      <c r="D61" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13554,9 +14823,6 @@
         <v>69.94692156862745</v>
       </c>
       <c r="F61" t="n">
-        <v>93.36850000000001</v>
-      </c>
-      <c r="G61" t="n">
         <v>51.29</v>
       </c>
     </row>
@@ -13571,7 +14837,10 @@
           <t>FIN</t>
         </is>
       </c>
-      <c r="D62" s="13" t="inlineStr">
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13580,9 +14849,6 @@
         <v>83.77275949508008</v>
       </c>
       <c r="F62" t="n">
-        <v>99.83799999999999</v>
-      </c>
-      <c r="G62" t="n">
         <v>61.11300000000001</v>
       </c>
     </row>
@@ -13598,9 +14864,9 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" s="13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13609,9 +14875,6 @@
         <v>81.12854124111183</v>
       </c>
       <c r="F63" t="n">
-        <v>99.54300000000001</v>
-      </c>
-      <c r="G63" t="n">
         <v>70.33785714285715</v>
       </c>
     </row>
@@ -13626,7 +14889,7 @@
           <t>GAB</t>
         </is>
       </c>
-      <c r="D64" s="13" t="inlineStr">
+      <c r="D64" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13635,9 +14898,6 @@
         <v>63.40206131413805</v>
       </c>
       <c r="F64" t="n">
-        <v>86.3015</v>
-      </c>
-      <c r="G64" t="n">
         <v>53.90528571428571</v>
       </c>
     </row>
@@ -13652,7 +14912,7 @@
           <t>GMB</t>
         </is>
       </c>
-      <c r="D65" s="13" t="inlineStr">
+      <c r="D65" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13661,9 +14921,6 @@
         <v>57.8582505602241</v>
       </c>
       <c r="F65" t="n">
-        <v>67.285</v>
-      </c>
-      <c r="G65" t="n">
         <v>45.74342857142857</v>
       </c>
     </row>
@@ -13678,7 +14935,7 @@
           <t>GEO</t>
         </is>
       </c>
-      <c r="D66" s="13" t="inlineStr">
+      <c r="D66" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13687,9 +14944,6 @@
         <v>71.88018627450981</v>
       </c>
       <c r="F66" t="n">
-        <v>85.77600000000001</v>
-      </c>
-      <c r="G66" t="n">
         <v>51.18385714285714</v>
       </c>
     </row>
@@ -13705,9 +14959,9 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13716,9 +14970,6 @@
         <v>80.77438596566833</v>
       </c>
       <c r="F67" t="n">
-        <v>99.636</v>
-      </c>
-      <c r="G67" t="n">
         <v>70.04771428571428</v>
       </c>
     </row>
@@ -13733,7 +14984,7 @@
           <t>GHA</t>
         </is>
       </c>
-      <c r="D68" s="13" t="inlineStr">
+      <c r="D68" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13742,9 +14993,6 @@
         <v>65.37443683473391</v>
       </c>
       <c r="F68" t="n">
-        <v>70.271</v>
-      </c>
-      <c r="G68" t="n">
         <v>63.62642857142857</v>
       </c>
     </row>
@@ -13759,7 +15007,10 @@
           <t>GRC</t>
         </is>
       </c>
-      <c r="D69" s="13" t="inlineStr">
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13768,9 +15019,6 @@
         <v>74.32960392156863</v>
       </c>
       <c r="F69" t="n">
-        <v>96.6795</v>
-      </c>
-      <c r="G69" t="n">
         <v>62.27800000000001</v>
       </c>
     </row>
@@ -13785,7 +15033,7 @@
           <t>GRD</t>
         </is>
       </c>
-      <c r="D70" s="13" t="inlineStr">
+      <c r="D70" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13802,7 +15050,7 @@
           <t>GTM</t>
         </is>
       </c>
-      <c r="D71" s="13" t="inlineStr">
+      <c r="D71" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13811,9 +15059,6 @@
         <v>61.54244845938374</v>
       </c>
       <c r="F71" t="n">
-        <v>75.50150000000001</v>
-      </c>
-      <c r="G71" t="n">
         <v>44.97628571428572</v>
       </c>
     </row>
@@ -13828,7 +15073,7 @@
           <t>GIN</t>
         </is>
       </c>
-      <c r="D72" s="13" t="inlineStr">
+      <c r="D72" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -13837,9 +15082,6 @@
         <v>52.4691779178338</v>
       </c>
       <c r="F72" t="n">
-        <v>34.7175</v>
-      </c>
-      <c r="G72" t="n">
         <v>51.64742857142857</v>
       </c>
     </row>
@@ -13854,7 +15096,7 @@
           <t>GNB</t>
         </is>
       </c>
-      <c r="D73" s="13" t="inlineStr">
+      <c r="D73" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -13871,7 +15113,7 @@
           <t>GUY</t>
         </is>
       </c>
-      <c r="D74" s="13" t="inlineStr">
+      <c r="D74" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13880,9 +15122,6 @@
         <v>59.73539428104576</v>
       </c>
       <c r="F74" t="n">
-        <v>93.938</v>
-      </c>
-      <c r="G74" t="n">
         <v>58.89728571428571</v>
       </c>
     </row>
@@ -13897,7 +15136,7 @@
           <t>HTI</t>
         </is>
       </c>
-      <c r="D75" s="13" t="inlineStr">
+      <c r="D75" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -13906,9 +15145,6 @@
         <v>51.69477868509723</v>
       </c>
       <c r="F75" t="n">
-        <v>36.962</v>
-      </c>
-      <c r="G75" t="n">
         <v>41.152</v>
       </c>
     </row>
@@ -13923,7 +15159,7 @@
           <t>HND</t>
         </is>
       </c>
-      <c r="D76" s="13" t="inlineStr">
+      <c r="D76" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -13932,9 +15168,6 @@
         <v>64.44480574229691</v>
       </c>
       <c r="F76" t="n">
-        <v>58.7805</v>
-      </c>
-      <c r="G76" t="n">
         <v>48.14514285714285</v>
       </c>
     </row>
@@ -13949,7 +15182,10 @@
           <t>HUN</t>
         </is>
       </c>
-      <c r="D77" s="13" t="inlineStr">
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13958,9 +15194,6 @@
         <v>77.33621140056025</v>
       </c>
       <c r="F77" t="n">
-        <v>98.968</v>
-      </c>
-      <c r="G77" t="n">
         <v>68.04457142857143</v>
       </c>
     </row>
@@ -13975,7 +15208,7 @@
           <t>ISL</t>
         </is>
       </c>
-      <c r="D78" s="13" t="inlineStr">
+      <c r="D78" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -13984,9 +15217,6 @@
         <v>77.51680039143861</v>
       </c>
       <c r="F78" t="n">
-        <v>99.7055</v>
-      </c>
-      <c r="G78" t="n">
         <v>62.05950000000001</v>
       </c>
     </row>
@@ -14001,7 +15231,7 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="D79" s="13" t="inlineStr">
+      <c r="D79" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -14010,9 +15240,6 @@
         <v>61.91698893198304</v>
       </c>
       <c r="F79" t="n">
-        <v>74.523</v>
-      </c>
-      <c r="G79" t="n">
         <v>44.25485714285715</v>
       </c>
     </row>
@@ -14027,7 +15254,7 @@
           <t>IDN</t>
         </is>
       </c>
-      <c r="D80" s="13" t="inlineStr">
+      <c r="D80" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -14036,9 +15263,6 @@
         <v>65.30426778711485</v>
       </c>
       <c r="F80" t="n">
-        <v>75.94250000000001</v>
-      </c>
-      <c r="G80" t="n">
         <v>56.399</v>
       </c>
     </row>
@@ -14053,7 +15277,7 @@
           <t>IRN</t>
         </is>
       </c>
-      <c r="D81" s="13" t="inlineStr">
+      <c r="D81" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14062,9 +15286,6 @@
         <v>71.81309883286647</v>
       </c>
       <c r="F81" t="n">
-        <v>95.78749999999999</v>
-      </c>
-      <c r="G81" t="n">
         <v>58.40357142857142</v>
       </c>
     </row>
@@ -14079,7 +15300,7 @@
           <t>IRQ</t>
         </is>
       </c>
-      <c r="D82" s="13" t="inlineStr">
+      <c r="D82" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -14088,9 +15309,6 @@
         <v>63.13649823852617</v>
       </c>
       <c r="F82" t="n">
-        <v>85.17699999999999</v>
-      </c>
-      <c r="G82" t="n">
         <v>43.85971428571429</v>
       </c>
     </row>
@@ -14105,7 +15323,10 @@
           <t>IRL</t>
         </is>
       </c>
-      <c r="D83" s="13" t="inlineStr">
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14114,9 +15335,6 @@
         <v>79.3810310170222</v>
       </c>
       <c r="F83" t="n">
-        <v>99.68600000000001</v>
-      </c>
-      <c r="G83" t="n">
         <v>75.76571428571428</v>
       </c>
     </row>
@@ -14131,7 +15349,7 @@
           <t>ISR</t>
         </is>
       </c>
-      <c r="D84" s="13" t="inlineStr">
+      <c r="D84" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14140,9 +15358,6 @@
         <v>74.59641059757234</v>
       </c>
       <c r="F84" t="n">
-        <v>99.2325</v>
-      </c>
-      <c r="G84" t="n">
         <v>57.77628571428572</v>
       </c>
     </row>
@@ -14158,9 +15373,9 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" s="13" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="D85" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14169,9 +15384,6 @@
         <v>77.01180028011204</v>
       </c>
       <c r="F85" t="n">
-        <v>97.30799999999999</v>
-      </c>
-      <c r="G85" t="n">
         <v>66.93485714285714</v>
       </c>
     </row>
@@ -14186,7 +15398,7 @@
           <t>JAM</t>
         </is>
       </c>
-      <c r="D86" s="13" t="inlineStr">
+      <c r="D86" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14195,9 +15407,6 @@
         <v>68.66371866695397</v>
       </c>
       <c r="F86" t="n">
-        <v>86.045</v>
-      </c>
-      <c r="G86" t="n">
         <v>49.7472857142857</v>
       </c>
     </row>
@@ -14212,10 +15421,7 @@
           <t>JPN</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" s="13" t="inlineStr">
+      <c r="D87" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14224,9 +15430,6 @@
         <v>79.16612522803995</v>
       </c>
       <c r="F87" t="n">
-        <v>98.9915</v>
-      </c>
-      <c r="G87" t="n">
         <v>74.11757142857142</v>
       </c>
     </row>
@@ -14241,7 +15444,7 @@
           <t>JOR</t>
         </is>
       </c>
-      <c r="D88" s="13" t="inlineStr">
+      <c r="D88" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14250,9 +15453,6 @@
         <v>68.05371069094303</v>
       </c>
       <c r="F88" t="n">
-        <v>90.795</v>
-      </c>
-      <c r="G88" t="n">
         <v>52.787</v>
       </c>
     </row>
@@ -14267,7 +15467,7 @@
           <t>KAZ</t>
         </is>
       </c>
-      <c r="D89" s="13" t="inlineStr">
+      <c r="D89" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14276,9 +15476,6 @@
         <v>71.05855057720058</v>
       </c>
       <c r="F89" t="n">
-        <v>99.886</v>
-      </c>
-      <c r="G89" t="n">
         <v>53.34728571428571</v>
       </c>
     </row>
@@ -14293,7 +15490,7 @@
           <t>KEN</t>
         </is>
       </c>
-      <c r="D90" s="13" t="inlineStr">
+      <c r="D90" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -14302,9 +15499,6 @@
         <v>60.17106661998133</v>
       </c>
       <c r="F90" t="n">
-        <v>48.463</v>
-      </c>
-      <c r="G90" t="n">
         <v>48.81942857142858</v>
       </c>
     </row>
@@ -14319,7 +15513,7 @@
           <t>KIR</t>
         </is>
       </c>
-      <c r="D91" s="13" t="inlineStr">
+      <c r="D91" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14336,7 +15530,7 @@
           <t>PRK</t>
         </is>
       </c>
-      <c r="D92" s="13" t="inlineStr">
+      <c r="D92" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14353,7 +15547,7 @@
           <t>KOR</t>
         </is>
       </c>
-      <c r="D93" s="13" t="inlineStr">
+      <c r="D93" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14362,9 +15556,6 @@
         <v>78.34155288730878</v>
       </c>
       <c r="F93" t="n">
-        <v>99.0245</v>
-      </c>
-      <c r="G93" t="n">
         <v>80.24442857142857</v>
       </c>
     </row>
@@ -14374,7 +15565,7 @@
           <t>Kosovo</t>
         </is>
       </c>
-      <c r="D94" s="13" t="inlineStr">
+      <c r="D94" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14391,7 +15582,7 @@
           <t>KWT</t>
         </is>
       </c>
-      <c r="D95" s="13" t="inlineStr">
+      <c r="D95" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14399,7 +15590,7 @@
       <c r="E95" t="n">
         <v>63.14272332569391</v>
       </c>
-      <c r="G95" t="n">
+      <c r="F95" t="n">
         <v>62.85157142857143</v>
       </c>
     </row>
@@ -14414,7 +15605,7 @@
           <t>KGZ</t>
         </is>
       </c>
-      <c r="D96" s="13" t="inlineStr">
+      <c r="D96" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14423,9 +15614,6 @@
         <v>73.01092219251338</v>
       </c>
       <c r="F96" t="n">
-        <v>84.32849999999999</v>
-      </c>
-      <c r="G96" t="n">
         <v>60.491</v>
       </c>
     </row>
@@ -14440,7 +15628,7 @@
           <t>LAO</t>
         </is>
       </c>
-      <c r="D97" s="13" t="inlineStr">
+      <c r="D97" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -14449,9 +15637,6 @@
         <v>62.06225509803923</v>
       </c>
       <c r="F97" t="n">
-        <v>58.718</v>
-      </c>
-      <c r="G97" t="n">
         <v>63.012</v>
       </c>
     </row>
@@ -14466,7 +15651,10 @@
           <t>LVA</t>
         </is>
       </c>
-      <c r="D98" s="13" t="inlineStr">
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14475,9 +15663,6 @@
         <v>77.73404654528476</v>
       </c>
       <c r="F98" t="n">
-        <v>98.75399999999999</v>
-      </c>
-      <c r="G98" t="n">
         <v>63.93628571428572</v>
       </c>
     </row>
@@ -14492,7 +15677,7 @@
           <t>LBN</t>
         </is>
       </c>
-      <c r="D99" s="13" t="inlineStr">
+      <c r="D99" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14501,9 +15686,6 @@
         <v>66.6765837535014</v>
       </c>
       <c r="F99" t="n">
-        <v>99.92750000000001</v>
-      </c>
-      <c r="G99" t="n">
         <v>49.126</v>
       </c>
     </row>
@@ -14518,7 +15700,7 @@
           <t>LSO</t>
         </is>
       </c>
-      <c r="D100" s="13" t="inlineStr">
+      <c r="D100" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -14527,9 +15709,6 @@
         <v>53.99763614089313</v>
       </c>
       <c r="F100" t="n">
-        <v>14.0085</v>
-      </c>
-      <c r="G100" t="n">
         <v>50.50785714285715</v>
       </c>
     </row>
@@ -14544,7 +15723,7 @@
           <t>LBR</t>
         </is>
       </c>
-      <c r="D101" s="13" t="inlineStr">
+      <c r="D101" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -14553,9 +15732,6 @@
         <v>47.12115385154062</v>
       </c>
       <c r="F101" t="n">
-        <v>22.989</v>
-      </c>
-      <c r="G101" t="n">
         <v>44.38914285714286</v>
       </c>
     </row>
@@ -14570,7 +15746,7 @@
           <t>LBY</t>
         </is>
       </c>
-      <c r="D102" s="13" t="inlineStr">
+      <c r="D102" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14587,7 +15763,7 @@
           <t>LIE</t>
         </is>
       </c>
-      <c r="D103" s="13" t="inlineStr">
+      <c r="D103" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14604,7 +15780,10 @@
           <t>LTU</t>
         </is>
       </c>
-      <c r="D104" s="13" t="inlineStr">
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14613,9 +15792,6 @@
         <v>74.95026318681319</v>
       </c>
       <c r="F104" t="n">
-        <v>98.51050000000001</v>
-      </c>
-      <c r="G104" t="n">
         <v>61.47628571428572</v>
       </c>
     </row>
@@ -14630,7 +15806,10 @@
           <t>LUX</t>
         </is>
       </c>
-      <c r="D105" s="13" t="inlineStr">
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14639,9 +15818,6 @@
         <v>74.30922607771313</v>
       </c>
       <c r="F105" t="n">
-        <v>99.85499999999999</v>
-      </c>
-      <c r="G105" t="n">
         <v>67.122</v>
       </c>
     </row>
@@ -14656,7 +15832,7 @@
           <t>MDG</t>
         </is>
       </c>
-      <c r="D106" s="13" t="inlineStr">
+      <c r="D106" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -14665,9 +15841,6 @@
         <v>49.14394309056956</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
         <v>40.43142857142857</v>
       </c>
     </row>
@@ -14682,7 +15855,7 @@
           <t>MWI</t>
         </is>
       </c>
-      <c r="D107" s="13" t="inlineStr">
+      <c r="D107" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -14691,9 +15864,6 @@
         <v>52.20149659840948</v>
       </c>
       <c r="F107" t="n">
-        <v>4.194</v>
-      </c>
-      <c r="G107" t="n">
         <v>59.39571428571428</v>
       </c>
     </row>
@@ -14708,7 +15878,7 @@
           <t>MYS</t>
         </is>
       </c>
-      <c r="D108" s="13" t="inlineStr">
+      <c r="D108" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14717,9 +15887,6 @@
         <v>71.75873949579832</v>
       </c>
       <c r="F108" t="n">
-        <v>99.98050000000001</v>
-      </c>
-      <c r="G108" t="n">
         <v>54.55714285714286</v>
       </c>
     </row>
@@ -14734,7 +15901,7 @@
           <t>MDV</t>
         </is>
       </c>
-      <c r="D109" s="13" t="inlineStr">
+      <c r="D109" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14743,9 +15910,6 @@
         <v>67.59050688429218</v>
       </c>
       <c r="F109" t="n">
-        <v>91.7535</v>
-      </c>
-      <c r="G109" t="n">
         <v>44.88842857142858</v>
       </c>
     </row>
@@ -14760,7 +15924,7 @@
           <t>MLI</t>
         </is>
       </c>
-      <c r="D110" s="13" t="inlineStr">
+      <c r="D110" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -14769,9 +15933,6 @@
         <v>51.38535304098651</v>
       </c>
       <c r="F110" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="G110" t="n">
         <v>48.40557142857143</v>
       </c>
     </row>
@@ -14786,7 +15947,10 @@
           <t>MLT</t>
         </is>
       </c>
-      <c r="D111" s="13" t="inlineStr">
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14795,9 +15959,6 @@
         <v>75.96636460892049</v>
       </c>
       <c r="F111" t="n">
-        <v>99.755</v>
-      </c>
-      <c r="G111" t="n">
         <v>62.21557142857143</v>
       </c>
     </row>
@@ -14812,7 +15973,7 @@
           <t>MHL</t>
         </is>
       </c>
-      <c r="D112" s="13" t="inlineStr">
+      <c r="D112" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14829,7 +15990,7 @@
           <t>MRT</t>
         </is>
       </c>
-      <c r="D113" s="13" t="inlineStr">
+      <c r="D113" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -14838,9 +15999,6 @@
         <v>57.72159169000934</v>
       </c>
       <c r="F113" t="n">
-        <v>81.38550000000001</v>
-      </c>
-      <c r="G113" t="n">
         <v>39.45828571428572</v>
       </c>
     </row>
@@ -14855,7 +16013,7 @@
           <t>MUS</t>
         </is>
       </c>
-      <c r="D114" s="13" t="inlineStr">
+      <c r="D114" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14864,9 +16022,6 @@
         <v>63.77344229691876</v>
       </c>
       <c r="F114" t="n">
-        <v>98.785</v>
-      </c>
-      <c r="G114" t="n">
         <v>59.1788</v>
       </c>
     </row>
@@ -14881,7 +16036,7 @@
           <t>MEX</t>
         </is>
       </c>
-      <c r="D115" s="13" t="inlineStr">
+      <c r="D115" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14890,9 +16045,6 @@
         <v>70.43634631185809</v>
       </c>
       <c r="F115" t="n">
-        <v>87.26300000000001</v>
-      </c>
-      <c r="G115" t="n">
         <v>56.82785714285716</v>
       </c>
     </row>
@@ -14907,7 +16059,7 @@
           <t>FSM</t>
         </is>
       </c>
-      <c r="D116" s="13" t="inlineStr">
+      <c r="D116" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14924,7 +16076,7 @@
           <t>MDA</t>
         </is>
       </c>
-      <c r="D117" s="13" t="inlineStr">
+      <c r="D117" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14933,9 +16085,6 @@
         <v>74.44386724386725</v>
       </c>
       <c r="F117" t="n">
-        <v>99.6495</v>
-      </c>
-      <c r="G117" t="n">
         <v>58.73933333333334</v>
       </c>
     </row>
@@ -14950,7 +16099,7 @@
           <t>MCO</t>
         </is>
       </c>
-      <c r="D118" s="13" t="inlineStr">
+      <c r="D118" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -14967,7 +16116,7 @@
           <t>MNG</t>
         </is>
       </c>
-      <c r="D119" s="13" t="inlineStr">
+      <c r="D119" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -14976,9 +16125,6 @@
         <v>63.98315122315594</v>
       </c>
       <c r="F119" t="n">
-        <v>95.65350000000001</v>
-      </c>
-      <c r="G119" t="n">
         <v>42.41614285714286</v>
       </c>
     </row>
@@ -14993,7 +16139,7 @@
           <t>MNE</t>
         </is>
       </c>
-      <c r="D120" s="13" t="inlineStr">
+      <c r="D120" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15002,9 +16148,6 @@
         <v>70.18786265172736</v>
       </c>
       <c r="F120" t="n">
-        <v>99.91550000000001</v>
-      </c>
-      <c r="G120" t="n">
         <v>50.31842857142858</v>
       </c>
     </row>
@@ -15019,7 +16162,7 @@
           <t>MAR</t>
         </is>
       </c>
-      <c r="D121" s="13" t="inlineStr">
+      <c r="D121" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15028,9 +16171,6 @@
         <v>71.29460093370682</v>
       </c>
       <c r="F121" t="n">
-        <v>95.48500000000001</v>
-      </c>
-      <c r="G121" t="n">
         <v>56.76157142857142</v>
       </c>
     </row>
@@ -15045,7 +16185,7 @@
           <t>MOZ</t>
         </is>
       </c>
-      <c r="D122" s="13" t="inlineStr">
+      <c r="D122" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15054,9 +16194,6 @@
         <v>54.12580247432305</v>
       </c>
       <c r="F122" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="G122" t="n">
         <v>45.26485714285715</v>
       </c>
     </row>
@@ -15071,7 +16208,7 @@
           <t>MMR</t>
         </is>
       </c>
-      <c r="D123" s="13" t="inlineStr">
+      <c r="D123" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15080,9 +16217,6 @@
         <v>64.57962156862745</v>
       </c>
       <c r="F123" t="n">
-        <v>85.11799999999999</v>
-      </c>
-      <c r="G123" t="n">
         <v>56.58928571428572</v>
       </c>
     </row>
@@ -15097,7 +16231,7 @@
           <t>NAM</t>
         </is>
       </c>
-      <c r="D124" s="13" t="inlineStr">
+      <c r="D124" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -15106,9 +16240,6 @@
         <v>61.63399719887956</v>
       </c>
       <c r="F124" t="n">
-        <v>56.192</v>
-      </c>
-      <c r="G124" t="n">
         <v>38.3087142857143</v>
       </c>
     </row>
@@ -15123,7 +16254,7 @@
           <t>NRU</t>
         </is>
       </c>
-      <c r="D125" s="13" t="inlineStr">
+      <c r="D125" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15140,7 +16271,7 @@
           <t>NPL</t>
         </is>
       </c>
-      <c r="D126" s="13" t="inlineStr">
+      <c r="D126" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -15149,9 +16280,6 @@
         <v>65.93334613445377</v>
       </c>
       <c r="F126" t="n">
-        <v>63.242</v>
-      </c>
-      <c r="G126" t="n">
         <v>58.00228571428572</v>
       </c>
     </row>
@@ -15166,7 +16294,10 @@
           <t>NLD</t>
         </is>
       </c>
-      <c r="D127" s="13" t="inlineStr">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15175,9 +16306,6 @@
         <v>80.37147205343678</v>
       </c>
       <c r="F127" t="n">
-        <v>99.613</v>
-      </c>
-      <c r="G127" t="n">
         <v>66.66685714285715</v>
       </c>
     </row>
@@ -15192,7 +16320,7 @@
           <t>NZL</t>
         </is>
       </c>
-      <c r="D128" s="13" t="inlineStr">
+      <c r="D128" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15201,9 +16329,6 @@
         <v>79.20293613044012</v>
       </c>
       <c r="F128" t="n">
-        <v>99.9735</v>
-      </c>
-      <c r="G128" t="n">
         <v>66.61142857142856</v>
       </c>
     </row>
@@ -15218,7 +16343,7 @@
           <t>NIC</t>
         </is>
       </c>
-      <c r="D129" s="13" t="inlineStr">
+      <c r="D129" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15227,9 +16352,6 @@
         <v>68.6557030812325</v>
       </c>
       <c r="F129" t="n">
-        <v>84.9195</v>
-      </c>
-      <c r="G129" t="n">
         <v>48.09742857142857</v>
       </c>
     </row>
@@ -15244,7 +16366,7 @@
           <t>NER</t>
         </is>
       </c>
-      <c r="D130" s="13" t="inlineStr">
+      <c r="D130" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -15253,9 +16375,6 @@
         <v>50.14931293827876</v>
       </c>
       <c r="F130" t="n">
-        <v>7.066</v>
-      </c>
-      <c r="G130" t="n">
         <v>44.10142857142858</v>
       </c>
     </row>
@@ -15270,7 +16389,7 @@
           <t>NGA</t>
         </is>
       </c>
-      <c r="D131" s="13" t="inlineStr">
+      <c r="D131" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15279,9 +16398,6 @@
         <v>49.27973809523809</v>
       </c>
       <c r="F131" t="n">
-        <v>17.2385</v>
-      </c>
-      <c r="G131" t="n">
         <v>49.0367142857143</v>
       </c>
     </row>
@@ -15296,7 +16412,7 @@
           <t>NKD</t>
         </is>
       </c>
-      <c r="D132" s="13" t="inlineStr">
+      <c r="D132" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15313,7 +16429,7 @@
           <t>NOR</t>
         </is>
       </c>
-      <c r="D133" s="13" t="inlineStr">
+      <c r="D133" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15322,9 +16438,6 @@
         <v>80.75791943905769</v>
       </c>
       <c r="F133" t="n">
-        <v>99.48</v>
-      </c>
-      <c r="G133" t="n">
         <v>59.21571428571429</v>
       </c>
     </row>
@@ -15339,7 +16452,7 @@
           <t>OMN</t>
         </is>
       </c>
-      <c r="D134" s="13" t="inlineStr">
+      <c r="D134" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15347,7 +16460,7 @@
       <c r="E134" t="n">
         <v>69.66843565062389</v>
       </c>
-      <c r="G134" t="n">
+      <c r="F134" t="n">
         <v>58.32142857142857</v>
       </c>
     </row>
@@ -15362,7 +16475,7 @@
           <t>PAK</t>
         </is>
       </c>
-      <c r="D135" s="13" t="inlineStr">
+      <c r="D135" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -15371,9 +16484,6 @@
         <v>56.16954796918768</v>
       </c>
       <c r="F135" t="n">
-        <v>79.3105</v>
-      </c>
-      <c r="G135" t="n">
         <v>36.34557142857143</v>
       </c>
     </row>
@@ -15388,7 +16498,7 @@
           <t>PLW</t>
         </is>
       </c>
-      <c r="D136" s="13" t="inlineStr">
+      <c r="D136" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15405,7 +16515,7 @@
           <t>PAN</t>
         </is>
       </c>
-      <c r="D137" s="13" t="inlineStr">
+      <c r="D137" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15414,9 +16524,6 @@
         <v>69.19003622782446</v>
       </c>
       <c r="F137" t="n">
-        <v>93.8095</v>
-      </c>
-      <c r="G137" t="n">
         <v>52.295</v>
       </c>
     </row>
@@ -15431,7 +16538,7 @@
           <t>PNG</t>
         </is>
       </c>
-      <c r="D138" s="13" t="inlineStr">
+      <c r="D138" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15440,9 +16547,6 @@
         <v>51.66137360482655</v>
       </c>
       <c r="F138" t="n">
-        <v>31.2415</v>
-      </c>
-      <c r="G138" t="n">
         <v>29.57360000000001</v>
       </c>
     </row>
@@ -15457,7 +16561,7 @@
           <t>PRY</t>
         </is>
       </c>
-      <c r="D139" s="13" t="inlineStr">
+      <c r="D139" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15466,9 +16570,6 @@
         <v>67.70740855402767</v>
       </c>
       <c r="F139" t="n">
-        <v>94.902</v>
-      </c>
-      <c r="G139" t="n">
         <v>70.83942857142857</v>
       </c>
     </row>
@@ -15483,7 +16584,7 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D140" s="13" t="inlineStr">
+      <c r="D140" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15492,9 +16593,6 @@
         <v>71.75456479925305</v>
       </c>
       <c r="F140" t="n">
-        <v>90.1335</v>
-      </c>
-      <c r="G140" t="n">
         <v>63.37585714285716</v>
       </c>
     </row>
@@ -15509,7 +16607,7 @@
           <t>PHL</t>
         </is>
       </c>
-      <c r="D141" s="13" t="inlineStr">
+      <c r="D141" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -15518,9 +16616,6 @@
         <v>65.49550504201682</v>
       </c>
       <c r="F141" t="n">
-        <v>76.38800000000001</v>
-      </c>
-      <c r="G141" t="n">
         <v>57.58471428571428</v>
       </c>
     </row>
@@ -15535,7 +16630,10 @@
           <t>POL</t>
         </is>
       </c>
-      <c r="D142" s="13" t="inlineStr">
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15544,9 +16642,6 @@
         <v>78.09870441313781</v>
       </c>
       <c r="F142" t="n">
-        <v>99.9085</v>
-      </c>
-      <c r="G142" t="n">
         <v>65.34400000000001</v>
       </c>
     </row>
@@ -15561,7 +16656,10 @@
           <t>PRT</t>
         </is>
       </c>
-      <c r="D143" s="13" t="inlineStr">
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15570,9 +16668,6 @@
         <v>77.64856582633055</v>
       </c>
       <c r="F143" t="n">
-        <v>98.76400000000001</v>
-      </c>
-      <c r="G143" t="n">
         <v>58.94014285714287</v>
       </c>
     </row>
@@ -15587,7 +16682,7 @@
           <t>QAT</t>
         </is>
       </c>
-      <c r="D144" s="13" t="inlineStr">
+      <c r="D144" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15595,7 +16690,7 @@
       <c r="E144" t="n">
         <v>64.65117279240367</v>
       </c>
-      <c r="G144" t="n">
+      <c r="F144" t="n">
         <v>62.49616666666667</v>
       </c>
     </row>
@@ -15610,7 +16705,10 @@
           <t>ROU</t>
         </is>
       </c>
-      <c r="D145" s="13" t="inlineStr">
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15619,9 +16717,6 @@
         <v>74.78147528011202</v>
       </c>
       <c r="F145" t="n">
-        <v>99.0855</v>
-      </c>
-      <c r="G145" t="n">
         <v>64.95085714285715</v>
       </c>
     </row>
@@ -15636,10 +16731,7 @@
           <t>RUS</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" s="13" t="inlineStr">
+      <c r="D146" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15648,9 +16740,6 @@
         <v>71.92445354449471</v>
       </c>
       <c r="F146" t="n">
-        <v>99.961</v>
-      </c>
-      <c r="G146" t="n">
         <v>50.0662</v>
       </c>
     </row>
@@ -15665,7 +16754,7 @@
           <t>RWA</t>
         </is>
       </c>
-      <c r="D147" s="13" t="inlineStr">
+      <c r="D147" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15674,9 +16763,6 @@
         <v>56.55806139766251</v>
       </c>
       <c r="F147" t="n">
-        <v>18.409</v>
-      </c>
-      <c r="G147" t="n">
         <v>51.72828571428571</v>
       </c>
     </row>
@@ -15691,7 +16777,7 @@
           <t>KNA</t>
         </is>
       </c>
-      <c r="D148" s="13" t="inlineStr">
+      <c r="D148" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15708,7 +16794,7 @@
           <t>LCA</t>
         </is>
       </c>
-      <c r="D149" s="13" t="inlineStr">
+      <c r="D149" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15725,7 +16811,7 @@
           <t>VCT</t>
         </is>
       </c>
-      <c r="D150" s="13" t="inlineStr">
+      <c r="D150" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15742,7 +16828,7 @@
           <t>WSM</t>
         </is>
       </c>
-      <c r="D151" s="13" t="inlineStr">
+      <c r="D151" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15759,7 +16845,7 @@
           <t>SMR</t>
         </is>
       </c>
-      <c r="D152" s="13" t="inlineStr">
+      <c r="D152" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15776,7 +16862,7 @@
           <t>STP</t>
         </is>
       </c>
-      <c r="D153" s="13" t="inlineStr">
+      <c r="D153" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15785,9 +16871,6 @@
         <v>62.57498188967894</v>
       </c>
       <c r="F153" t="n">
-        <v>38.40150000000001</v>
-      </c>
-      <c r="G153" t="n">
         <v>58.99728571428572</v>
       </c>
     </row>
@@ -15802,7 +16885,7 @@
           <t>SAU</t>
         </is>
       </c>
-      <c r="D154" s="13" t="inlineStr">
+      <c r="D154" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15810,7 +16893,7 @@
       <c r="E154" t="n">
         <v>65.84678604924488</v>
       </c>
-      <c r="G154" t="n">
+      <c r="F154" t="n">
         <v>51.90457142857143</v>
       </c>
     </row>
@@ -15825,7 +16908,7 @@
           <t>SEN</t>
         </is>
       </c>
-      <c r="D155" s="13" t="inlineStr">
+      <c r="D155" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15834,9 +16917,6 @@
         <v>58.26712152194211</v>
       </c>
       <c r="F155" t="n">
-        <v>31.281</v>
-      </c>
-      <c r="G155" t="n">
         <v>56.51542857142858</v>
       </c>
     </row>
@@ -15851,7 +16931,7 @@
           <t>SRB</t>
         </is>
       </c>
-      <c r="D156" s="13" t="inlineStr">
+      <c r="D156" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15860,9 +16940,6 @@
         <v>75.23480505899329</v>
       </c>
       <c r="F156" t="n">
-        <v>99.5095</v>
-      </c>
-      <c r="G156" t="n">
         <v>62.33842857142857</v>
       </c>
     </row>
@@ -15877,7 +16954,7 @@
           <t>SYC</t>
         </is>
       </c>
-      <c r="D157" s="13" t="inlineStr">
+      <c r="D157" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -15894,7 +16971,7 @@
           <t>SLE</t>
         </is>
       </c>
-      <c r="D158" s="13" t="inlineStr">
+      <c r="D158" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -15903,9 +16980,6 @@
         <v>51.90816365546218</v>
       </c>
       <c r="F158" t="n">
-        <v>23.8775</v>
-      </c>
-      <c r="G158" t="n">
         <v>45.72300000000001</v>
       </c>
     </row>
@@ -15920,7 +16994,7 @@
           <t>SGP</t>
         </is>
       </c>
-      <c r="D159" s="13" t="inlineStr">
+      <c r="D159" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15929,9 +17003,6 @@
         <v>67.00013599439774</v>
       </c>
       <c r="F159" t="n">
-        <v>98.358</v>
-      </c>
-      <c r="G159" t="n">
         <v>72.4832</v>
       </c>
     </row>
@@ -15946,7 +17017,10 @@
           <t>SVK</t>
         </is>
       </c>
-      <c r="D160" s="13" t="inlineStr">
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15955,9 +17029,6 @@
         <v>77.510564826546</v>
       </c>
       <c r="F160" t="n">
-        <v>98.23150000000001</v>
-      </c>
-      <c r="G160" t="n">
         <v>67.7427142857143</v>
       </c>
     </row>
@@ -15972,7 +17043,10 @@
           <t>SVN</t>
         </is>
       </c>
-      <c r="D161" s="13" t="inlineStr">
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -15981,9 +17055,6 @@
         <v>79.80024885800474</v>
       </c>
       <c r="F161" t="n">
-        <v>99.6695</v>
-      </c>
-      <c r="G161" t="n">
         <v>66.37028571428573</v>
       </c>
     </row>
@@ -15998,7 +17069,7 @@
           <t>SLB</t>
         </is>
       </c>
-      <c r="D162" s="13" t="inlineStr">
+      <c r="D162" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16015,7 +17086,7 @@
           <t>SOM</t>
         </is>
       </c>
-      <c r="D163" s="13" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16024,9 +17095,6 @@
         <v>46.20727043988843</v>
       </c>
       <c r="F163" t="n">
-        <v>15.234</v>
-      </c>
-      <c r="G163" t="n">
         <v>30.597</v>
       </c>
     </row>
@@ -16041,7 +17109,7 @@
           <t>ZAF</t>
         </is>
       </c>
-      <c r="D164" s="13" t="inlineStr">
+      <c r="D164" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -16050,9 +17118,6 @@
         <v>63.40942969187674</v>
       </c>
       <c r="F164" t="n">
-        <v>50.0155</v>
-      </c>
-      <c r="G164" t="n">
         <v>60.12314285714285</v>
       </c>
     </row>
@@ -16067,7 +17132,10 @@
           <t>ESP</t>
         </is>
       </c>
-      <c r="D165" s="13" t="inlineStr">
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16076,9 +17144,6 @@
         <v>78.11066031386915</v>
       </c>
       <c r="F165" t="n">
-        <v>98.078</v>
-      </c>
-      <c r="G165" t="n">
         <v>57.30414285714286</v>
       </c>
     </row>
@@ -16093,7 +17158,7 @@
           <t>LKA</t>
         </is>
       </c>
-      <c r="D166" s="13" t="inlineStr">
+      <c r="D166" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16102,9 +17167,6 @@
         <v>66.87636311858077</v>
       </c>
       <c r="F166" t="n">
-        <v>92.086</v>
-      </c>
-      <c r="G166" t="n">
         <v>53.46585714285715</v>
       </c>
     </row>
@@ -16119,7 +17181,7 @@
           <t>SDN</t>
         </is>
       </c>
-      <c r="D167" s="13" t="inlineStr">
+      <c r="D167" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16128,9 +17190,6 @@
         <v>49.56100301120449</v>
       </c>
       <c r="F167" t="n">
-        <v>33.037</v>
-      </c>
-      <c r="G167" t="n">
         <v>20.7644</v>
       </c>
     </row>
@@ -16145,7 +17204,7 @@
           <t>SSD</t>
         </is>
       </c>
-      <c r="D168" s="13" t="inlineStr">
+      <c r="D168" s="12" t="inlineStr">
         <is>
           <t>cluster_1</t>
         </is>
@@ -16154,9 +17213,6 @@
         <v>43.65692022119192</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
         <v>25.8975</v>
       </c>
     </row>
@@ -16171,7 +17227,7 @@
           <t>SUR</t>
         </is>
       </c>
-      <c r="D169" s="13" t="inlineStr">
+      <c r="D169" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -16180,9 +17236,6 @@
         <v>68.35894932306257</v>
       </c>
       <c r="F169" t="n">
-        <v>56.511</v>
-      </c>
-      <c r="G169" t="n">
         <v>61.88942857142857</v>
       </c>
     </row>
@@ -16197,7 +17250,10 @@
           <t>SWE</t>
         </is>
       </c>
-      <c r="D170" s="13" t="inlineStr">
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16206,9 +17262,6 @@
         <v>84.72406266968326</v>
       </c>
       <c r="F170" t="n">
-        <v>99.033</v>
-      </c>
-      <c r="G170" t="n">
         <v>67.675</v>
       </c>
     </row>
@@ -16223,7 +17276,7 @@
           <t>CHE</t>
         </is>
       </c>
-      <c r="D171" s="13" t="inlineStr">
+      <c r="D171" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16232,9 +17285,6 @@
         <v>79.35089680241329</v>
       </c>
       <c r="F171" t="n">
-        <v>99.881</v>
-      </c>
-      <c r="G171" t="n">
         <v>67.54700000000001</v>
       </c>
     </row>
@@ -16249,7 +17299,7 @@
           <t>SYR</t>
         </is>
       </c>
-      <c r="D172" s="13" t="inlineStr">
+      <c r="D172" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16257,7 +17307,7 @@
       <c r="E172" t="n">
         <v>59.33453795518208</v>
       </c>
-      <c r="G172" t="n">
+      <c r="F172" t="n">
         <v>35.27883333333333</v>
       </c>
     </row>
@@ -16272,7 +17322,7 @@
           <t>TWN</t>
         </is>
       </c>
-      <c r="D173" s="13" t="inlineStr">
+      <c r="D173" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16289,7 +17339,7 @@
           <t>TJK</t>
         </is>
       </c>
-      <c r="D174" s="13" t="inlineStr">
+      <c r="D174" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16298,9 +17348,6 @@
         <v>69.43167401324165</v>
       </c>
       <c r="F174" t="n">
-        <v>87.70750000000001</v>
-      </c>
-      <c r="G174" t="n">
         <v>52.24316666666666</v>
       </c>
     </row>
@@ -16315,7 +17362,7 @@
           <t>TZA</t>
         </is>
       </c>
-      <c r="D175" s="13" t="inlineStr">
+      <c r="D175" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16324,9 +17371,6 @@
         <v>56.64084402427638</v>
       </c>
       <c r="F175" t="n">
-        <v>23.423</v>
-      </c>
-      <c r="G175" t="n">
         <v>50.46442857142857</v>
       </c>
     </row>
@@ -16341,7 +17385,7 @@
           <t>THA</t>
         </is>
       </c>
-      <c r="D176" s="13" t="inlineStr">
+      <c r="D176" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16350,9 +17394,6 @@
         <v>74.53629047619047</v>
       </c>
       <c r="F176" t="n">
-        <v>99.9905</v>
-      </c>
-      <c r="G176" t="n">
         <v>62.89557142857144</v>
       </c>
     </row>
@@ -16367,7 +17408,7 @@
           <t>TGO</t>
         </is>
       </c>
-      <c r="D177" s="13" t="inlineStr">
+      <c r="D177" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16376,9 +17417,6 @@
         <v>52.6961757002801</v>
       </c>
       <c r="F177" t="n">
-        <v>21.777</v>
-      </c>
-      <c r="G177" t="n">
         <v>54.05042857142858</v>
       </c>
     </row>
@@ -16393,7 +17431,7 @@
           <t>TON</t>
         </is>
       </c>
-      <c r="D178" s="13" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16410,7 +17448,7 @@
           <t>TTO</t>
         </is>
       </c>
-      <c r="D179" s="13" t="inlineStr">
+      <c r="D179" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16419,9 +17457,6 @@
         <v>65.76397005674066</v>
       </c>
       <c r="F179" t="n">
-        <v>98.4855</v>
-      </c>
-      <c r="G179" t="n">
         <v>47.25742857142858</v>
       </c>
     </row>
@@ -16436,7 +17471,7 @@
           <t>TUN</t>
         </is>
       </c>
-      <c r="D180" s="13" t="inlineStr">
+      <c r="D180" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16445,9 +17480,6 @@
         <v>71.37200588235294</v>
       </c>
       <c r="F180" t="n">
-        <v>97.80250000000001</v>
-      </c>
-      <c r="G180" t="n">
         <v>53.61785714285715</v>
       </c>
     </row>
@@ -16462,7 +17494,7 @@
           <t>TUR</t>
         </is>
       </c>
-      <c r="D181" s="13" t="inlineStr">
+      <c r="D181" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16471,9 +17503,6 @@
         <v>70.30322351863822</v>
       </c>
       <c r="F181" t="n">
-        <v>99.6795</v>
-      </c>
-      <c r="G181" t="n">
         <v>59.74228571428572</v>
       </c>
     </row>
@@ -16488,7 +17517,7 @@
           <t>TKM</t>
         </is>
       </c>
-      <c r="D182" s="13" t="inlineStr">
+      <c r="D182" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16497,9 +17526,6 @@
         <v>63.02554429622666</v>
       </c>
       <c r="F182" t="n">
-        <v>31.708</v>
-      </c>
-      <c r="G182" t="n">
         <v>53.55485714285714</v>
       </c>
     </row>
@@ -16514,7 +17540,7 @@
           <t>TUV</t>
         </is>
       </c>
-      <c r="D183" s="13" t="inlineStr">
+      <c r="D183" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16531,7 +17557,7 @@
           <t>UGA</t>
         </is>
       </c>
-      <c r="D184" s="13" t="inlineStr">
+      <c r="D184" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16540,9 +17566,6 @@
         <v>53.48697960494543</v>
       </c>
       <c r="F184" t="n">
-        <v>24.5315</v>
-      </c>
-      <c r="G184" t="n">
         <v>50.49271428571429</v>
       </c>
     </row>
@@ -16557,7 +17580,7 @@
           <t>UKR</t>
         </is>
       </c>
-      <c r="D185" s="13" t="inlineStr">
+      <c r="D185" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16566,9 +17589,6 @@
         <v>74.24486083099907</v>
       </c>
       <c r="F185" t="n">
-        <v>99.7645</v>
-      </c>
-      <c r="G185" t="n">
         <v>57.53171428571428</v>
       </c>
     </row>
@@ -16583,7 +17603,7 @@
           <t>ARE</t>
         </is>
       </c>
-      <c r="D186" s="13" t="inlineStr">
+      <c r="D186" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16591,7 +17611,7 @@
       <c r="E186" t="n">
         <v>70.29539873410901</v>
       </c>
-      <c r="G186" t="n">
+      <c r="F186" t="n">
         <v>63.39757142857143</v>
       </c>
     </row>
@@ -16606,10 +17626,7 @@
           <t>GBR</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="13" t="inlineStr">
+      <c r="D187" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16618,9 +17635,6 @@
         <v>79.78909703009408</v>
       </c>
       <c r="F187" t="n">
-        <v>99.6925</v>
-      </c>
-      <c r="G187" t="n">
         <v>67.45442857142858</v>
       </c>
     </row>
@@ -16635,10 +17649,7 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" s="13" t="inlineStr">
+      <c r="D188" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16647,9 +17658,6 @@
         <v>76.42850076492134</v>
       </c>
       <c r="F188" t="n">
-        <v>98.929</v>
-      </c>
-      <c r="G188" t="n">
         <v>66.25871428571429</v>
       </c>
     </row>
@@ -16664,7 +17672,7 @@
           <t>URY</t>
         </is>
       </c>
-      <c r="D189" s="13" t="inlineStr">
+      <c r="D189" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16673,9 +17681,6 @@
         <v>74.27768865546219</v>
       </c>
       <c r="F189" t="n">
-        <v>99.886</v>
-      </c>
-      <c r="G189" t="n">
         <v>61.34842857142858</v>
       </c>
     </row>
@@ -16690,7 +17695,7 @@
           <t>UZB</t>
         </is>
       </c>
-      <c r="D190" s="13" t="inlineStr">
+      <c r="D190" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -16699,9 +17704,6 @@
         <v>71.01814684237331</v>
       </c>
       <c r="F190" t="n">
-        <v>67.49850000000001</v>
-      </c>
-      <c r="G190" t="n">
         <v>59.86042857142856</v>
       </c>
     </row>
@@ -16716,7 +17718,7 @@
           <t>VUT</t>
         </is>
       </c>
-      <c r="D191" s="13" t="inlineStr">
+      <c r="D191" s="12" t="inlineStr">
         <is>
           <t>cluster_3</t>
         </is>
@@ -16725,9 +17727,6 @@
         <v>60.88544523809524</v>
       </c>
       <c r="F191" t="n">
-        <v>60.1185</v>
-      </c>
-      <c r="G191" t="n">
         <v>47.33328571428572</v>
       </c>
     </row>
@@ -16742,7 +17741,7 @@
           <t>VAT</t>
         </is>
       </c>
-      <c r="D192" s="13" t="inlineStr">
+      <c r="D192" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16759,7 +17758,7 @@
           <t>VEN</t>
         </is>
       </c>
-      <c r="D193" s="13" t="inlineStr">
+      <c r="D193" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16768,9 +17767,6 @@
         <v>61.68403325073619</v>
       </c>
       <c r="F193" t="n">
-        <v>24.807</v>
-      </c>
-      <c r="G193" t="n">
         <v>46.13085714285715</v>
       </c>
     </row>
@@ -16785,7 +17781,7 @@
           <t>VNM</t>
         </is>
       </c>
-      <c r="D194" s="13" t="inlineStr">
+      <c r="D194" s="12" t="inlineStr">
         <is>
           <t>cluster_4</t>
         </is>
@@ -16794,9 +17790,6 @@
         <v>73.8019007936508</v>
       </c>
       <c r="F194" t="n">
-        <v>96.129</v>
-      </c>
-      <c r="G194" t="n">
         <v>67.64128571428571</v>
       </c>
     </row>
@@ -16811,7 +17804,7 @@
           <t>YEM</t>
         </is>
       </c>
-      <c r="D195" s="13" t="inlineStr">
+      <c r="D195" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16819,7 +17812,7 @@
       <c r="E195" t="n">
         <v>52.32540737628386</v>
       </c>
-      <c r="G195" t="n">
+      <c r="F195" t="n">
         <v>27.47857142857143</v>
       </c>
     </row>
@@ -16834,7 +17827,7 @@
           <t>ZMB</t>
         </is>
       </c>
-      <c r="D196" s="13" t="inlineStr">
+      <c r="D196" s="12" t="inlineStr">
         <is>
           <t>cluster_2</t>
         </is>
@@ -16843,9 +17836,6 @@
         <v>52.6716871212853</v>
       </c>
       <c r="F196" t="n">
-        <v>13.0785</v>
-      </c>
-      <c r="G196" t="n">
         <v>44.00314285714285</v>
       </c>
     </row>
@@ -16860,7 +17850,7 @@
           <t>ZWE</t>
         </is>
       </c>
-      <c r="D197" s="13" t="inlineStr">
+      <c r="D197" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16868,7 +17858,7 @@
       <c r="E197" t="n">
         <v>59.50782948398795</v>
       </c>
-      <c r="G197" t="n">
+      <c r="F197" t="n">
         <v>39.91657142857144</v>
       </c>
     </row>
@@ -16883,7 +17873,7 @@
           <t>HKG</t>
         </is>
       </c>
-      <c r="D198" s="13" t="inlineStr">
+      <c r="D198" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16900,7 +17890,7 @@
           <t>MAC</t>
         </is>
       </c>
-      <c r="D199" s="13" t="inlineStr">
+      <c r="D199" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16917,7 +17907,7 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="D200" s="13" t="inlineStr">
+      <c r="D200" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16934,7 +17924,7 @@
           <t>ABW</t>
         </is>
       </c>
-      <c r="D201" s="13" t="inlineStr">
+      <c r="D201" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16951,7 +17941,7 @@
           <t>PRI</t>
         </is>
       </c>
-      <c r="D202" s="13" t="inlineStr">
+      <c r="D202" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16968,7 +17958,7 @@
           <t>NV1</t>
         </is>
       </c>
-      <c r="D203" s="13" t="inlineStr">
+      <c r="D203" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -16977,9 +17967,6 @@
         <v>79.1262323567496</v>
       </c>
       <c r="F203" t="n">
-        <v>98.93281610317554</v>
-      </c>
-      <c r="G203" t="n">
         <v>66.56328432616601</v>
       </c>
     </row>
@@ -16994,7 +17981,7 @@
           <t>NV2</t>
         </is>
       </c>
-      <c r="D204" s="13" t="inlineStr">
+      <c r="D204" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17003,9 +17990,6 @@
         <v>76.77362293358054</v>
       </c>
       <c r="F204" t="n">
-        <v>97.51532905557113</v>
-      </c>
-      <c r="G204" t="n">
         <v>65.89197895777858</v>
       </c>
     </row>
@@ -17020,10 +18004,7 @@
           <t>NV3</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" s="13" t="inlineStr">
+      <c r="D205" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17032,9 +18013,6 @@
         <v>77.19053211150539</v>
       </c>
       <c r="F205" t="n">
-        <v>99.17110443356273</v>
-      </c>
-      <c r="G205" t="n">
         <v>65.46096651780115</v>
       </c>
     </row>
@@ -17049,7 +18027,7 @@
           <t>NV4</t>
         </is>
       </c>
-      <c r="D206" s="13" t="inlineStr">
+      <c r="D206" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17058,9 +18036,6 @@
         <v>78.18244048436961</v>
       </c>
       <c r="F206" t="n">
-        <v>99.02232123253991</v>
-      </c>
-      <c r="G206" t="n">
         <v>68.36069496145876</v>
       </c>
     </row>
@@ -17075,7 +18050,7 @@
           <t>NV5</t>
         </is>
       </c>
-      <c r="D207" s="13" t="inlineStr">
+      <c r="D207" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17084,9 +18059,6 @@
         <v>70.13154802057666</v>
       </c>
       <c r="F207" t="n">
-        <v>88.47723761885028</v>
-      </c>
-      <c r="G207" t="n">
         <v>61.62348438258535</v>
       </c>
     </row>
@@ -17101,7 +18073,7 @@
           <t>NV6</t>
         </is>
       </c>
-      <c r="D208" s="13" t="inlineStr">
+      <c r="D208" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17110,9 +18082,6 @@
         <v>78.09839052593308</v>
       </c>
       <c r="F208" t="n">
-        <v>99.00717120911195</v>
-      </c>
-      <c r="G208" t="n">
         <v>68.14129229991171</v>
       </c>
     </row>
@@ -17127,7 +18096,7 @@
           <t>NV7</t>
         </is>
       </c>
-      <c r="D209" s="13" t="inlineStr">
+      <c r="D209" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17136,9 +18105,6 @@
         <v>71.54166304640883</v>
       </c>
       <c r="F209" t="n">
-        <v>85.19723909728964</v>
-      </c>
-      <c r="G209" t="n">
         <v>61.72352565003491</v>
       </c>
     </row>
@@ -17153,7 +18119,7 @@
           <t>NV8</t>
         </is>
       </c>
-      <c r="D210" s="13" t="inlineStr">
+      <c r="D210" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17162,9 +18128,6 @@
         <v>79.33345306789008</v>
       </c>
       <c r="F210" t="n">
-        <v>98.82752370838134</v>
-      </c>
-      <c r="G210" t="n">
         <v>66.74744871649263</v>
       </c>
     </row>
@@ -17179,7 +18142,7 @@
           <t>NV9</t>
         </is>
       </c>
-      <c r="D211" s="13" t="inlineStr">
+      <c r="D211" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17188,9 +18151,6 @@
         <v>76.08795994836407</v>
       </c>
       <c r="F211" t="n">
-        <v>97.46095269401543</v>
-      </c>
-      <c r="G211" t="n">
         <v>61.82279556195236</v>
       </c>
     </row>
@@ -17205,7 +18165,7 @@
           <t>NV10</t>
         </is>
       </c>
-      <c r="D212" s="13" t="inlineStr">
+      <c r="D212" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17214,9 +18174,6 @@
         <v>77.37239417147066</v>
       </c>
       <c r="F212" t="n">
-        <v>99.21008603171408</v>
-      </c>
-      <c r="G212" t="n">
         <v>65.37029547745222</v>
       </c>
     </row>
@@ -17231,7 +18188,7 @@
           <t>NV11</t>
         </is>
       </c>
-      <c r="D213" s="13" t="inlineStr">
+      <c r="D213" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17240,9 +18197,6 @@
         <v>67.81249153620584</v>
       </c>
       <c r="F213" t="n">
-        <v>93.23011184060782</v>
-      </c>
-      <c r="G213" t="n">
         <v>53.1694296175427</v>
       </c>
     </row>
@@ -17257,7 +18211,7 @@
           <t>NV12</t>
         </is>
       </c>
-      <c r="D214" s="13" t="inlineStr">
+      <c r="D214" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17266,9 +18220,6 @@
         <v>61.35457486808474</v>
       </c>
       <c r="F214" t="n">
-        <v>74.45404794392428</v>
-      </c>
-      <c r="G214" t="n">
         <v>44.65857654618515</v>
       </c>
     </row>
@@ -17283,7 +18234,7 @@
           <t>NV13</t>
         </is>
       </c>
-      <c r="D215" s="13" t="inlineStr">
+      <c r="D215" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17292,9 +18243,6 @@
         <v>53.57893073165234</v>
       </c>
       <c r="F215" t="n">
-        <v>26.00664761827824</v>
-      </c>
-      <c r="G215" t="n">
         <v>48.66381050413848</v>
       </c>
     </row>
@@ -17309,7 +18257,7 @@
           <t>NV14</t>
         </is>
       </c>
-      <c r="D216" s="13" t="inlineStr">
+      <c r="D216" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17318,9 +18266,6 @@
         <v>70.6867786240136</v>
       </c>
       <c r="F216" t="n">
-        <v>83.97642885654675</v>
-      </c>
-      <c r="G216" t="n">
         <v>60.05205076699061</v>
       </c>
     </row>
@@ -17335,7 +18280,7 @@
           <t>NV15</t>
         </is>
       </c>
-      <c r="D217" s="13" t="inlineStr">
+      <c r="D217" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17344,9 +18289,6 @@
         <v>72.443120723813</v>
       </c>
       <c r="F217" t="n">
-        <v>93.69593006150207</v>
-      </c>
-      <c r="G217" t="n">
         <v>70.88463846560194</v>
       </c>
     </row>
@@ -17361,7 +18303,7 @@
           <t>NV16</t>
         </is>
       </c>
-      <c r="D218" s="13" t="inlineStr">
+      <c r="D218" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17370,9 +18312,6 @@
         <v>64.05436023844197</v>
       </c>
       <c r="F218" t="n">
-        <v>80.04587503211287</v>
-      </c>
-      <c r="G218" t="n">
         <v>47.70291899643214</v>
       </c>
     </row>
@@ -17387,7 +18326,7 @@
           <t>NV17</t>
         </is>
       </c>
-      <c r="D219" s="13" t="inlineStr">
+      <c r="D219" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17396,9 +18335,6 @@
         <v>76.60793168183693</v>
       </c>
       <c r="F219" t="n">
-        <v>98.95961444209283</v>
-      </c>
-      <c r="G219" t="n">
         <v>66.01202315499238</v>
       </c>
     </row>
@@ -17413,7 +18349,7 @@
           <t>NV18</t>
         </is>
       </c>
-      <c r="D220" s="13" t="inlineStr">
+      <c r="D220" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17422,9 +18358,6 @@
         <v>77.57868990437203</v>
       </c>
       <c r="F220" t="n">
-        <v>99.00432127976818</v>
-      </c>
-      <c r="G220" t="n">
         <v>67.03504958206449</v>
       </c>
     </row>
@@ -17439,7 +18372,7 @@
           <t>NV19</t>
         </is>
       </c>
-      <c r="D221" s="13" t="inlineStr">
+      <c r="D221" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17448,9 +18381,6 @@
         <v>72.40798316217089</v>
       </c>
       <c r="F221" t="n">
-        <v>93.78096312991588</v>
-      </c>
-      <c r="G221" t="n">
         <v>67.70401623479142</v>
       </c>
     </row>
@@ -17465,7 +18395,7 @@
           <t>NV20</t>
         </is>
       </c>
-      <c r="D222" s="13" t="inlineStr">
+      <c r="D222" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17474,9 +18404,6 @@
         <v>65.39177861719386</v>
       </c>
       <c r="F222" t="n">
-        <v>75.61317851625763</v>
-      </c>
-      <c r="G222" t="n">
         <v>56.42285449209073</v>
       </c>
     </row>
@@ -17491,7 +18418,7 @@
           <t>NV21</t>
         </is>
       </c>
-      <c r="D223" s="13" t="inlineStr">
+      <c r="D223" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17500,9 +18427,6 @@
         <v>53.43587475364187</v>
       </c>
       <c r="F223" t="n">
-        <v>21.29228394486061</v>
-      </c>
-      <c r="G223" t="n">
         <v>47.29436502939397</v>
       </c>
     </row>
@@ -17517,7 +18441,7 @@
           <t>NV22</t>
         </is>
       </c>
-      <c r="D224" s="13" t="inlineStr">
+      <c r="D224" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17526,9 +18450,6 @@
         <v>61.91702909603853</v>
       </c>
       <c r="F224" t="n">
-        <v>70.39755296811308</v>
-      </c>
-      <c r="G224" t="n">
         <v>48.57761232556776</v>
       </c>
     </row>
@@ -17543,7 +18464,7 @@
           <t>NV23</t>
         </is>
       </c>
-      <c r="D225" s="13" t="inlineStr">
+      <c r="D225" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17552,9 +18473,6 @@
         <v>66.81711234313832</v>
       </c>
       <c r="F225" t="n">
-        <v>81.32231931565045</v>
-      </c>
-      <c r="G225" t="n">
         <v>57.51111549239663</v>
       </c>
     </row>
@@ -17569,7 +18487,7 @@
           <t>NV24</t>
         </is>
       </c>
-      <c r="D226" s="13" t="inlineStr">
+      <c r="D226" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17578,9 +18496,6 @@
         <v>55.56020143328975</v>
       </c>
       <c r="F226" t="n">
-        <v>35.29453547172163</v>
-      </c>
-      <c r="G226" t="n">
         <v>48.47307255143618</v>
       </c>
     </row>
@@ -17595,7 +18510,7 @@
           <t>NV25</t>
         </is>
       </c>
-      <c r="D227" s="13" t="inlineStr">
+      <c r="D227" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17604,9 +18519,6 @@
         <v>73.43593627314735</v>
       </c>
       <c r="F227" t="n">
-        <v>96.67410143754101</v>
-      </c>
-      <c r="G227" t="n">
         <v>70.38318473264341</v>
       </c>
     </row>
@@ -17621,7 +18533,7 @@
           <t>NV26</t>
         </is>
       </c>
-      <c r="D228" s="13" t="inlineStr">
+      <c r="D228" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17630,9 +18542,6 @@
         <v>52.57865968108012</v>
       </c>
       <c r="F228" t="n">
-        <v>24.39612218968029</v>
-      </c>
-      <c r="G228" t="n">
         <v>46.70796484179391</v>
       </c>
     </row>
@@ -17647,7 +18556,7 @@
           <t>NV27</t>
         </is>
       </c>
-      <c r="D229" s="13" t="inlineStr">
+      <c r="D229" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17656,9 +18565,6 @@
         <v>77.99001542537682</v>
       </c>
       <c r="F229" t="n">
-        <v>99.01821488917589</v>
-      </c>
-      <c r="G229" t="n">
         <v>67.24592044831866</v>
       </c>
     </row>
@@ -17673,7 +18579,7 @@
           <t>NV28</t>
         </is>
       </c>
-      <c r="D230" s="13" t="inlineStr">
+      <c r="D230" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17682,9 +18588,6 @@
         <v>63.52288640084375</v>
       </c>
       <c r="F230" t="n">
-        <v>75.08127469593992</v>
-      </c>
-      <c r="G230" t="n">
         <v>49.59224173479164</v>
       </c>
     </row>
@@ -17699,7 +18602,7 @@
           <t>NV29</t>
         </is>
       </c>
-      <c r="D231" s="13" t="inlineStr">
+      <c r="D231" s="12" t="inlineStr">
         <is>
           <t>outside_cluster</t>
         </is>
@@ -17708,9 +18611,6 @@
         <v>53.9627596314708</v>
       </c>
       <c r="F231" t="n">
-        <v>26.14892176064662</v>
-      </c>
-      <c r="G231" t="n">
         <v>48.14923977242662</v>
       </c>
     </row>
@@ -17721,6 +18621,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17734,9 +18652,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="11.7265625"/>
-    <col customWidth="1" max="2" min="2" style="12" width="25"/>
-    <col customWidth="1" max="36" min="36" style="12" width="12.7265625"/>
+    <col customWidth="1" max="1" min="1" style="16" width="11.7265625"/>
+    <col customWidth="1" max="2" min="2" style="16" width="25"/>
+    <col customWidth="1" max="36" min="36" style="16" width="12.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19842,7 +20760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19856,8 +20774,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="7.81640625"/>
-    <col customWidth="1" max="2" min="2" style="12" width="9.6328125"/>
+    <col customWidth="1" max="1" min="1" style="16" width="7.81640625"/>
+    <col customWidth="1" max="2" min="2" style="16" width="9.6328125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19872,7 +20790,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="2" s="12">
+    <row customHeight="1" ht="25.5" r="2" s="16">
       <c r="A2" s="11" t="inlineStr">
         <is>
           <t>auto</t>
@@ -19884,138 +20802,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>var1</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="C1" s="16" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="D1" s="16" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="E1" s="16" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="F1" s="16" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="G1" s="16" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="H1" s="16" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
-      <c r="I1" s="16" t="inlineStr">
-        <is>
-          <t>var9</t>
-        </is>
-      </c>
-      <c r="J1" s="16" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="K1" s="16" t="inlineStr">
-        <is>
-          <t>var11</t>
-        </is>
-      </c>
-      <c r="L1" s="16" t="inlineStr">
-        <is>
-          <t>var12</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>indicators\ODS2020.xlsx</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>indicators\ODS2020.xlsx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>indicators\ODS2020.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Hoja1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hoja1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Hoja1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020 Global Index Score (0-100)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Goal 1: No Poverty</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Goal 2: No hunger</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -20025,7 +20811,448 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:G231"/>
+  <dimension ref="C1:F170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="14" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="14" t="inlineStr">
+        <is>
+          <t>2020 Global Index Score (0-100)</t>
+        </is>
+      </c>
+      <c r="F1" s="14" t="inlineStr">
+        <is>
+          <t>Goal 2: No hunger</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.7 Austria</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>71.62 Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.96 Belgium</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>69.37 Belgium</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.77 Bulgaria</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>63.58 Bulgaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.4 Croatia</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>68.84 Croatia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.21 Cyprus</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>53.88 Cyprus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.58 Czech Republic</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>63.98 Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.56 Denmark</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>71.41 Denmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.06 Estonia</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>61.51 Estonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.77 Finland</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>61.11 Finland</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.13 France</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>70.34 France</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.77 Germany</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>70.05 Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.33 Greece</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>62.28 Greece</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.34 Hungary</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>68.04 Hungary</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.38 Ireland</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>75.77 Ireland</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>77.01 Italy</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>66.93 Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.73 Latvia</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>63.94 Latvia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>74.95 Lithuania</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>61.48 Lithuania</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>74.31 Luxembourg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>67.12 Luxembourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>75.97 Malta</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>62.22 Malta</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.37 Netherlands</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>66.67 Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>78.1 Poland</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>65.34 Poland</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>77.65 Portugal</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>58.94 Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>74.78 Romania</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>64.95 Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>77.51 Slovakia</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>67.74 Slovakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>79.8 Slovenia</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>66.37 Slovenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>78.11 Spain</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>57.3 Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>84.72 Sweden</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>67.68 Sweden</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20034,869 +21261,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="16" t="inlineStr">
-        <is>
-          <t>Cluster</t>
-        </is>
-      </c>
-      <c r="E1" s="16" t="inlineStr">
-        <is>
-          <t>2020 Global Index Score (0-100)</t>
-        </is>
-      </c>
-      <c r="F1" s="16" t="inlineStr">
-        <is>
-          <t>Goal 1: No Poverty</t>
-        </is>
-      </c>
-      <c r="G1" s="16" t="inlineStr">
-        <is>
-          <t>Goal 2: No hunger</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="C28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="C31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>78.19 Canada</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>99.23 Canada</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>63.84 Canada</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="C36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="C39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="C40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="C42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="C43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="C44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="C45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="C47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="C49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="C50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="C51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="C52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="C53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="C54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="C58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="C59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="C60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="C61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="C62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>81.13 France</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>99.54 France</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>70.34 France</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="C65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="C66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="C67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>80.77 Germany</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>99.64 Germany</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>70.05 Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="C69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="C70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="C71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="C72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="C73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="C74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="C75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="C76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="C77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="C78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="C79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="C80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="C81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="C82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="C83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="C84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>77.01 Italy</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>97.31 Italy</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>66.93 Italy</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>79.17 Japan</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>98.99 Japan</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>74.12 Japan</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="C90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="C91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="C92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="C93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="C94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="C95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="C96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="C97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="C98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="C99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="C100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="C101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="C102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="C103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="C104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="C105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="C107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="C108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="C109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="C110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="C111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="C112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="C113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="C114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="C115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="C116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="C117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="C118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="C119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="C120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="C121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="C122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="C123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="C124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="C125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="C126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="C127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="C128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="C129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="C130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="C131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="C132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="C133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="C134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="C135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="C136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="C137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="C138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="C139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="C140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="C141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="C142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="C143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="C144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="C145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>71.92 Russia</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>99.96 Russia</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>50.07 Russia</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="C147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="C148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="C149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="C150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="C151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="C152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="C153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="C154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="C155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="C156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="C157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="C158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="C159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="C160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="C161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="C162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="C163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="C164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="C165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="C166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="C167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="C168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="C169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="C170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="C171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="C172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="C173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="C174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="C175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="C176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="C177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="C178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="C179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="C180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="C181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="C182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="C183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="C184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="C185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="C186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>79.79 United Kingdom</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>99.69 United Kingdom</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>67.45 United Kingdom</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>76.43 United States</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>98.93 United States</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>66.26 United States</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="C189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="C190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="C191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="C192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="C193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="C194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="C195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="C196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="C197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="C198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="C199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="C200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="C201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="C202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="C203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="C204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>77.19 G8</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>99.17 G8</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>65.46 G8</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="C207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="C208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="C209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="C210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="C211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="C212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="C213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="C214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="C215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="C216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="C217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="C218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="C219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="C220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="C221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="C222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="C223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="C224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="C225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="C226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="C227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="C228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="C229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="C230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="C231" t="inlineStr"/>
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>var1</t>
+        </is>
+      </c>
+      <c r="B1" s="18" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
+      <c r="C1" s="18" t="inlineStr">
+        <is>
+          <t>var3</t>
+        </is>
+      </c>
+      <c r="D1" s="18" t="inlineStr">
+        <is>
+          <t>var4</t>
+        </is>
+      </c>
+      <c r="E1" s="18" t="inlineStr">
+        <is>
+          <t>var5</t>
+        </is>
+      </c>
+      <c r="F1" s="18" t="inlineStr">
+        <is>
+          <t>var6</t>
+        </is>
+      </c>
+      <c r="G1" s="18" t="inlineStr">
+        <is>
+          <t>var7</t>
+        </is>
+      </c>
+      <c r="H1" s="18" t="inlineStr">
+        <is>
+          <t>var8</t>
+        </is>
+      </c>
+      <c r="I1" s="18" t="inlineStr">
+        <is>
+          <t>var9</t>
+        </is>
+      </c>
+      <c r="J1" s="18" t="inlineStr">
+        <is>
+          <t>var10</t>
+        </is>
+      </c>
+      <c r="K1" s="18" t="inlineStr">
+        <is>
+          <t>var11</t>
+        </is>
+      </c>
+      <c r="L1" s="18" t="inlineStr">
+        <is>
+          <t>var12</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
